--- a/Report-Energy_Distribution.xlsx
+++ b/Report-Energy_Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ImproX\SCGLP\improx-broker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C424D9D-03B2-400D-9E6A-3778350444D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FC705-DB87-43F9-B5F1-4C1B5D984F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{CD7F1833-5369-4936-B486-E2170398BF47}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{CD7F1833-5369-4936-B486-E2170398BF47}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2373,6 +2395,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2381,15 +2412,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2857,7 +2879,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B4" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2955,7 +2977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84803C55-F9F5-4B0B-BB2E-159AE7EA5461}">
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
@@ -3017,7 +3039,7 @@
         <v>394</v>
       </c>
       <c r="F5" s="55">
-        <f ca="1">'Meter All'!C44</f>
+        <f>'Meter All'!C44</f>
         <v>0</v>
       </c>
       <c r="G5" s="56" t="s">
@@ -3035,7 +3057,7 @@
         <v>394</v>
       </c>
       <c r="F6" s="55">
-        <f ca="1">'Meter All'!C52</f>
+        <f>'Meter All'!C52</f>
         <v>0</v>
       </c>
       <c r="G6" s="56" t="s">
@@ -3053,7 +3075,7 @@
         <v>394</v>
       </c>
       <c r="F7" s="55">
-        <f ca="1">'Meter All'!C58</f>
+        <f>'Meter All'!C58</f>
         <v>0</v>
       </c>
       <c r="G7" s="56" t="s">
@@ -3071,7 +3093,7 @@
         <v>394</v>
       </c>
       <c r="F8" s="58">
-        <f ca="1">('Meter All'!C58-'Meter All'!C59)+('Meter All'!C45-'Meter All'!C49)</f>
+        <f>('Meter All'!C58-'Meter All'!C59)+('Meter All'!C45-'Meter All'!C49)</f>
         <v>0</v>
       </c>
       <c r="G8" s="56" t="s">
@@ -3088,7 +3110,7 @@
         <v>394</v>
       </c>
       <c r="F9" s="59">
-        <f ca="1">SUM(F5:F7)</f>
+        <f>SUM(F5:F7)</f>
         <v>0</v>
       </c>
       <c r="G9" s="56" t="s">
@@ -3102,7 +3124,7 @@
       </c>
       <c r="D10" s="114"/>
       <c r="F10" s="60">
-        <f ca="1">F9+F8</f>
+        <f>F9+F8</f>
         <v>0</v>
       </c>
       <c r="G10" s="61"/>
@@ -3138,7 +3160,7 @@
         <v>394</v>
       </c>
       <c r="F13" s="55">
-        <f ca="1">'Meter All'!C53</f>
+        <f>'Meter All'!C53</f>
         <v>0</v>
       </c>
       <c r="G13" s="56" t="s">
@@ -3156,7 +3178,7 @@
         <v>394</v>
       </c>
       <c r="F14" s="55">
-        <f ca="1">'Meter All'!C69+'Meter All'!C70</f>
+        <f>'Meter All'!C69+'Meter All'!C70</f>
         <v>0</v>
       </c>
       <c r="G14" s="56" t="s">
@@ -3174,7 +3196,7 @@
         <v>394</v>
       </c>
       <c r="F15" s="55">
-        <f ca="1">'Meter All'!C71</f>
+        <f>'Meter All'!C71</f>
         <v>0</v>
       </c>
       <c r="G15" s="56" t="s">
@@ -3192,7 +3214,7 @@
         <v>394</v>
       </c>
       <c r="F16" s="69">
-        <f ca="1">'Meter All'!C72</f>
+        <f>'Meter All'!C72</f>
         <v>0</v>
       </c>
       <c r="G16" s="56" t="s">
@@ -3210,7 +3232,7 @@
         <v>394</v>
       </c>
       <c r="F17" s="55">
-        <f ca="1">'Meter All'!C59+'Meter All'!C69</f>
+        <f>'Meter All'!C59+'Meter All'!C69</f>
         <v>0</v>
       </c>
       <c r="G17" s="56" t="s">
@@ -3228,7 +3250,7 @@
         <v>394</v>
       </c>
       <c r="F18" s="70">
-        <f ca="1">('Meter All'!C68-'Meter All'!C70-'Meter All'!C69-'Meter All'!C71-'Meter All'!C72)</f>
+        <f>('Meter All'!C68-'Meter All'!C70-'Meter All'!C69-'Meter All'!C71-'Meter All'!C72)</f>
         <v>0</v>
       </c>
       <c r="G18" s="56" t="s">
@@ -3245,7 +3267,7 @@
         <v>394</v>
       </c>
       <c r="F19" s="59">
-        <f ca="1">SUM(F13:F17)</f>
+        <f>SUM(F13:F17)</f>
         <v>0</v>
       </c>
       <c r="G19" s="56" t="s">
@@ -3259,7 +3281,7 @@
       </c>
       <c r="D20" s="114"/>
       <c r="F20" s="59">
-        <f ca="1">F19+F18</f>
+        <f>F19+F18</f>
         <v>0</v>
       </c>
       <c r="G20" s="56"/>
@@ -3295,7 +3317,7 @@
         <v>394</v>
       </c>
       <c r="F23" s="55">
-        <f ca="1">'Meter All'!C76</f>
+        <f>'Meter All'!C76</f>
         <v>0</v>
       </c>
       <c r="G23" s="56" t="s">
@@ -3313,7 +3335,7 @@
         <v>394</v>
       </c>
       <c r="F24" s="55">
-        <f ca="1">'Meter All'!C80</f>
+        <f>'Meter All'!C80</f>
         <v>0</v>
       </c>
       <c r="G24" s="56" t="s">
@@ -3331,7 +3353,7 @@
         <v>394</v>
       </c>
       <c r="F25" s="55">
-        <f ca="1">'Meter All'!C79</f>
+        <f>'Meter All'!C79</f>
         <v>0</v>
       </c>
       <c r="G25" s="56" t="s">
@@ -3349,7 +3371,7 @@
         <v>394</v>
       </c>
       <c r="F26" s="55">
-        <f ca="1">'Meter All'!C77</f>
+        <f>'Meter All'!C77</f>
         <v>0</v>
       </c>
       <c r="G26" s="56" t="s">
@@ -3367,7 +3389,7 @@
         <v>394</v>
       </c>
       <c r="F27" s="70">
-        <f ca="1">'Meter All'!C78-'Meter All'!C87</f>
+        <f>'Meter All'!C78-'Meter All'!C87</f>
         <v>0</v>
       </c>
       <c r="G27" s="56" t="s">
@@ -3384,7 +3406,7 @@
         <v>394</v>
       </c>
       <c r="F28" s="59">
-        <f ca="1">SUM(F23:F26)-F27</f>
+        <f>SUM(F23:F26)-F27</f>
         <v>0</v>
       </c>
       <c r="G28" s="56" t="s">
@@ -3398,7 +3420,7 @@
       </c>
       <c r="D29" s="114"/>
       <c r="F29" s="60">
-        <f ca="1">F28+F27</f>
+        <f>F28+F27</f>
         <v>0</v>
       </c>
       <c r="G29" s="56"/>
@@ -3434,7 +3456,7 @@
         <v>394</v>
       </c>
       <c r="F32" s="55">
-        <f ca="1">'Meter All'!C97</f>
+        <f>'Meter All'!C97</f>
         <v>0</v>
       </c>
       <c r="G32" s="56" t="s">
@@ -3452,7 +3474,7 @@
         <v>394</v>
       </c>
       <c r="F33" s="70">
-        <f ca="1">('Meter All'!C99+'Meter All'!C100-'Meter All'!C103-'Meter All'!C104)</f>
+        <f>('Meter All'!C99+'Meter All'!C100-'Meter All'!C103-'Meter All'!C104)</f>
         <v>0</v>
       </c>
       <c r="G33" s="56" t="s">
@@ -3469,7 +3491,7 @@
         <v>394</v>
       </c>
       <c r="F34" s="59">
-        <f ca="1">F32-F33</f>
+        <f>F32-F33</f>
         <v>0</v>
       </c>
       <c r="G34" s="56" t="s">
@@ -3483,7 +3505,7 @@
       </c>
       <c r="D35" s="114"/>
       <c r="F35" s="60">
-        <f ca="1">SUM(F32:F33)</f>
+        <f>SUM(F32:F33)</f>
         <v>0</v>
       </c>
       <c r="G35" s="56"/>
@@ -3519,7 +3541,7 @@
         <v>394</v>
       </c>
       <c r="F38" s="55">
-        <f ca="1">'Meter All'!C90</f>
+        <f>'Meter All'!C90</f>
         <v>0</v>
       </c>
       <c r="G38" s="56" t="s">
@@ -3537,7 +3559,7 @@
         <v>394</v>
       </c>
       <c r="F39" s="55">
-        <f ca="1">'Meter All'!C91</f>
+        <f>'Meter All'!C91</f>
         <v>0</v>
       </c>
       <c r="G39" s="56" t="s">
@@ -3555,7 +3577,7 @@
         <v>394</v>
       </c>
       <c r="F40" s="55">
-        <f ca="1">'Meter All'!C146</f>
+        <f>'Meter All'!C146</f>
         <v>0</v>
       </c>
       <c r="G40" s="56" t="s">
@@ -3573,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="F41" s="55">
-        <f ca="1">'Meter All'!C92</f>
+        <f>'Meter All'!C92</f>
         <v>0</v>
       </c>
       <c r="G41" s="56" t="s">
@@ -3591,7 +3613,7 @@
         <v>394</v>
       </c>
       <c r="F42" s="55">
-        <f ca="1">'Meter All'!C156-'Meter All'!C153-'Meter All'!C154+'Meter All'!C150+'Meter All'!C151+(363* 'key-in'!D3)</f>
+        <f>'Meter All'!C156-'Meter All'!C153-'Meter All'!C154+'Meter All'!C150+'Meter All'!C151+(363* 'key-in'!D3)</f>
         <v>0</v>
       </c>
       <c r="G42" s="56" t="s">
@@ -3610,7 +3632,7 @@
         <v>394</v>
       </c>
       <c r="F43" s="55">
-        <f ca="1">'Meter All'!C110</f>
+        <f>'Meter All'!C110</f>
         <v>0</v>
       </c>
       <c r="G43" s="56" t="s">
@@ -3629,7 +3651,7 @@
         <v>394</v>
       </c>
       <c r="F44" s="74">
-        <f ca="1">'Meter All'!C161</f>
+        <f>'Meter All'!C161</f>
         <v>0</v>
       </c>
       <c r="G44" s="56" t="s">
@@ -3648,7 +3670,7 @@
         <v>394</v>
       </c>
       <c r="F45" s="55">
-        <f ca="1">'Meter All'!C109+'Meter All'!C148-(363*'key-in'!D3)</f>
+        <f>'Meter All'!C109+'Meter All'!C148-(363*'key-in'!D3)</f>
         <v>0</v>
       </c>
       <c r="G45" s="56" t="s">
@@ -3667,7 +3689,7 @@
         <v>394</v>
       </c>
       <c r="F46" s="55">
-        <f ca="1">'Meter All'!C87</f>
+        <f>'Meter All'!C87</f>
         <v>0</v>
       </c>
       <c r="G46" s="56" t="s">
@@ -3685,7 +3707,7 @@
         <v>394</v>
       </c>
       <c r="F47" s="55">
-        <f ca="1">'Meter All'!C75</f>
+        <f>'Meter All'!C75</f>
         <v>0</v>
       </c>
       <c r="G47" s="56" t="s">
@@ -3703,7 +3725,7 @@
         <v>394</v>
       </c>
       <c r="F48" s="58">
-        <f ca="1">('Meter All'!C149-'Meter All'!C162)+('Meter All'!C93-'Meter All'!C99-'Meter All'!C100-'Meter All'!C103-'Meter All'!C104-'Meter All'!C105)+('Meter All'!C94-'Meter All'!C109-'Meter All'!C99-'Meter All'!C110-'Meter All'!C107-'Meter All'!C108)</f>
+        <f>('Meter All'!C149-'Meter All'!C162)+('Meter All'!C93-'Meter All'!C99-'Meter All'!C100-'Meter All'!C103-'Meter All'!C104-'Meter All'!C105)+('Meter All'!C94-'Meter All'!C109-'Meter All'!C99-'Meter All'!C110-'Meter All'!C107-'Meter All'!C108)</f>
         <v>0</v>
       </c>
       <c r="G48" s="56" t="s">
@@ -3721,7 +3743,7 @@
         <v>394</v>
       </c>
       <c r="F49" s="59">
-        <f ca="1">SUM(F38:F47)</f>
+        <f>SUM(F38:F47)</f>
         <v>0</v>
       </c>
       <c r="G49" s="56" t="s">
@@ -3735,7 +3757,7 @@
       </c>
       <c r="D50" s="114"/>
       <c r="F50" s="60">
-        <f ca="1">F49+F48</f>
+        <f>F49+F48</f>
         <v>0</v>
       </c>
       <c r="G50" s="56"/>
@@ -3767,7 +3789,7 @@
         <v>394</v>
       </c>
       <c r="F53" s="59">
-        <f ca="1">'Meter All'!C176</f>
+        <f>'Meter All'!C176</f>
         <v>0</v>
       </c>
       <c r="G53" s="56" t="s">
@@ -3805,7 +3827,7 @@
         <v>394</v>
       </c>
       <c r="F56" s="55">
-        <f ca="1">'Meter All'!C168+'Meter All'!C178</f>
+        <f>'Meter All'!C168+'Meter All'!C178</f>
         <v>0</v>
       </c>
       <c r="G56" s="56" t="s">
@@ -3823,7 +3845,7 @@
         <v>394</v>
       </c>
       <c r="F57" s="70">
-        <f ca="1">'Meter All'!C177</f>
+        <f>'Meter All'!C177</f>
         <v>0</v>
       </c>
       <c r="G57" s="56" t="s">
@@ -3841,7 +3863,7 @@
         <v>394</v>
       </c>
       <c r="F58" s="59">
-        <f ca="1">F56+F57</f>
+        <f>F56+F57</f>
         <v>0</v>
       </c>
       <c r="G58" s="56" t="s">
@@ -3879,7 +3901,7 @@
         <v>394</v>
       </c>
       <c r="F61" s="55">
-        <f ca="1">'Meter All'!C165</f>
+        <f>'Meter All'!C165</f>
         <v>0</v>
       </c>
       <c r="G61" s="56" t="s">
@@ -3897,7 +3919,7 @@
         <v>394</v>
       </c>
       <c r="F62" s="55">
-        <f ca="1">'Meter All'!C166</f>
+        <f>'Meter All'!C166</f>
         <v>0</v>
       </c>
       <c r="G62" s="56" t="s">
@@ -3915,7 +3937,7 @@
         <v>394</v>
       </c>
       <c r="F63" s="55">
-        <f ca="1">'Meter All'!C167</f>
+        <f>'Meter All'!C167</f>
         <v>0</v>
       </c>
       <c r="G63" s="56" t="s">
@@ -3933,7 +3955,7 @@
         <v>394</v>
       </c>
       <c r="F64" s="55">
-        <f ca="1">'Meter All'!C179+('Meter All'!C176*'key-in'!D22)+('Meter All'!C189*'key-in'!D22)+('Meter All'!C177*'key-in'!D22)</f>
+        <f>'Meter All'!C179+('Meter All'!C176*'key-in'!D22)+('Meter All'!C189*'key-in'!D22)+('Meter All'!C177*'key-in'!D22)</f>
         <v>0</v>
       </c>
       <c r="G64" s="56" t="s">
@@ -3952,7 +3974,7 @@
         <v>394</v>
       </c>
       <c r="F65" s="55">
-        <f ca="1">'Meter All'!C172*'key-in'!D7</f>
+        <f>'Meter All'!C172*'key-in'!D7</f>
         <v>0</v>
       </c>
       <c r="G65" s="56" t="s">
@@ -3970,7 +3992,7 @@
         <v>394</v>
       </c>
       <c r="F66" s="55">
-        <f ca="1">'Meter All'!C171*'key-in'!D7</f>
+        <f>'Meter All'!C171*'key-in'!D7</f>
         <v>0</v>
       </c>
       <c r="G66" s="56" t="s">
@@ -3988,7 +4010,7 @@
         <v>394</v>
       </c>
       <c r="F67" s="55">
-        <f ca="1">'Meter All'!C170*'key-in'!D7</f>
+        <f>'Meter All'!C170*'key-in'!D7</f>
         <v>0</v>
       </c>
       <c r="G67" s="56" t="s">
@@ -4006,7 +4028,7 @@
         <v>394</v>
       </c>
       <c r="F68" s="82">
-        <f ca="1">(('Meter All'!C169-'Meter All'!C179-'Meter All'!C176-'Meter All'!C178-'Meter All'!C177)+('Meter All'!C182-'Meter All'!C191-'Meter All'!C189)+('Meter All'!C194-'Meter All'!C204))*'key-in'!D22</f>
+        <f>(('Meter All'!C169-'Meter All'!C179-'Meter All'!C176-'Meter All'!C178-'Meter All'!C177)+('Meter All'!C182-'Meter All'!C191-'Meter All'!C189)+('Meter All'!C194-'Meter All'!C204))*'key-in'!D22</f>
         <v>0</v>
       </c>
       <c r="G68" s="83" t="s">
@@ -4025,7 +4047,7 @@
         <v>394</v>
       </c>
       <c r="F69" s="59">
-        <f ca="1">SUM(F61:F67)</f>
+        <f>SUM(F61:F67)</f>
         <v>0</v>
       </c>
       <c r="G69" s="56" t="s">
@@ -4041,7 +4063,7 @@
       <c r="D70" s="114"/>
       <c r="E70" s="52"/>
       <c r="F70" s="60">
-        <f ca="1">F69+F68</f>
+        <f>F69+F68</f>
         <v>0</v>
       </c>
       <c r="G70" s="56"/>
@@ -4077,7 +4099,7 @@
         <v>394</v>
       </c>
       <c r="F73" s="55">
-        <f ca="1">'Meter All'!C183</f>
+        <f>'Meter All'!C183</f>
         <v>0</v>
       </c>
       <c r="G73" s="86" t="s">
@@ -4095,7 +4117,7 @@
         <v>394</v>
       </c>
       <c r="F74" s="55">
-        <f ca="1">'Meter All'!C185</f>
+        <f>'Meter All'!C185</f>
         <v>0</v>
       </c>
       <c r="G74" s="56" t="s">
@@ -4113,7 +4135,7 @@
         <v>394</v>
       </c>
       <c r="F75" s="55">
-        <f ca="1">'Meter All'!C186</f>
+        <f>'Meter All'!C186</f>
         <v>0</v>
       </c>
       <c r="G75" s="56" t="s">
@@ -4131,7 +4153,7 @@
         <v>394</v>
       </c>
       <c r="F76" s="55">
-        <f ca="1">('Meter All'!C191+('Meter All'!C176*'key-in'!D23)+('Meter All'!C189*'key-in'!D23)+('Meter All'!C177*'key-in'!D23))</f>
+        <f>('Meter All'!C191+('Meter All'!C176*'key-in'!D23)+('Meter All'!C189*'key-in'!D23)+('Meter All'!C177*'key-in'!D23))</f>
         <v>0</v>
       </c>
       <c r="G76" s="56" t="s">
@@ -4149,7 +4171,7 @@
         <v>394</v>
       </c>
       <c r="F77" s="55">
-        <f ca="1">'Meter All'!C172*'key-in'!D8</f>
+        <f>'Meter All'!C172*'key-in'!D8</f>
         <v>0</v>
       </c>
       <c r="G77" s="56" t="s">
@@ -4167,7 +4189,7 @@
         <v>394</v>
       </c>
       <c r="F78" s="55">
-        <f ca="1">'Meter All'!C171*'key-in'!D8</f>
+        <f>'Meter All'!C171*'key-in'!D8</f>
         <v>0</v>
       </c>
       <c r="G78" s="56" t="s">
@@ -4185,7 +4207,7 @@
         <v>394</v>
       </c>
       <c r="F79" s="55">
-        <f ca="1">'Meter All'!C170*'key-in'!D8</f>
+        <f>'Meter All'!C170*'key-in'!D8</f>
         <v>0</v>
       </c>
       <c r="G79" s="56" t="s">
@@ -4203,7 +4225,7 @@
         <v>394</v>
       </c>
       <c r="F80" s="70">
-        <f ca="1">(('Meter All'!C169-'Meter All'!C179-'Meter All'!C176-'Meter All'!C178-'Meter All'!C177)+('Meter All'!C182-'Meter All'!C191-'Meter All'!C189)+('Meter All'!C194-'Meter All'!C204))*'key-in'!D23</f>
+        <f>(('Meter All'!C169-'Meter All'!C179-'Meter All'!C176-'Meter All'!C178-'Meter All'!C177)+('Meter All'!C182-'Meter All'!C191-'Meter All'!C189)+('Meter All'!C194-'Meter All'!C204))*'key-in'!D23</f>
         <v>0</v>
       </c>
       <c r="G80" s="56" t="s">
@@ -4222,7 +4244,7 @@
         <v>394</v>
       </c>
       <c r="F81" s="59">
-        <f ca="1">SUM(F73:F79)</f>
+        <f>SUM(F73:F79)</f>
         <v>0</v>
       </c>
       <c r="G81" s="56" t="s">
@@ -4238,7 +4260,7 @@
       <c r="D82" s="114"/>
       <c r="E82" s="52"/>
       <c r="F82" s="60">
-        <f ca="1">F81+F80</f>
+        <f>F81+F80</f>
         <v>0</v>
       </c>
       <c r="G82" s="56"/>
@@ -4274,7 +4296,7 @@
         <v>394</v>
       </c>
       <c r="F85" s="55">
-        <f ca="1">'Meter All'!C195</f>
+        <f>'Meter All'!C195</f>
         <v>0</v>
       </c>
       <c r="G85" s="56" t="s">
@@ -4292,7 +4314,7 @@
         <v>394</v>
       </c>
       <c r="F86" s="55">
-        <f ca="1">'Meter All'!C198</f>
+        <f>'Meter All'!C198</f>
         <v>0</v>
       </c>
       <c r="G86" s="56" t="s">
@@ -4310,7 +4332,7 @@
         <v>394</v>
       </c>
       <c r="F87" s="55">
-        <f ca="1">'Meter All'!C197</f>
+        <f>'Meter All'!C197</f>
         <v>0</v>
       </c>
       <c r="G87" s="56" t="s">
@@ -4328,7 +4350,7 @@
         <v>394</v>
       </c>
       <c r="F88" s="55">
-        <f ca="1">'Meter All'!C204+('Meter All'!C176*'key-in'!D24)+('Meter All'!C189*'key-in'!D24)+('Meter All'!C177*'key-in'!D24)</f>
+        <f>'Meter All'!C204+('Meter All'!C176*'key-in'!D24)+('Meter All'!C189*'key-in'!D24)+('Meter All'!C177*'key-in'!D24)</f>
         <v>0</v>
       </c>
       <c r="G88" s="56" t="s">
@@ -4346,7 +4368,7 @@
         <v>394</v>
       </c>
       <c r="F89" s="55">
-        <f ca="1">'Meter All'!C172*'key-in'!D9</f>
+        <f>'Meter All'!C172*'key-in'!D9</f>
         <v>0</v>
       </c>
       <c r="G89" s="56" t="s">
@@ -4364,7 +4386,7 @@
         <v>394</v>
       </c>
       <c r="F90" s="55">
-        <f ca="1">'Meter All'!C171*'key-in'!D9</f>
+        <f>'Meter All'!C171*'key-in'!D9</f>
         <v>0</v>
       </c>
       <c r="G90" s="56" t="s">
@@ -4382,7 +4404,7 @@
         <v>394</v>
       </c>
       <c r="F91" s="55">
-        <f ca="1">'Meter All'!C170*'key-in'!D9</f>
+        <f>'Meter All'!C170*'key-in'!D9</f>
         <v>0</v>
       </c>
       <c r="G91" s="56" t="s">
@@ -4400,7 +4422,7 @@
         <v>394</v>
       </c>
       <c r="F92" s="70">
-        <f ca="1">(('Meter All'!C169-'Meter All'!C179-'Meter All'!C176-'Meter All'!C178-'Meter All'!C177)+('Meter All'!C182-'Meter All'!C191-'Meter All'!C189-'Meter All'!C190)+('Meter All'!C194-'Meter All'!C204-'Meter All'!C204))*'key-in'!D24</f>
+        <f>(('Meter All'!C169-'Meter All'!C179-'Meter All'!C176-'Meter All'!C178-'Meter All'!C177)+('Meter All'!C182-'Meter All'!C191-'Meter All'!C189-'Meter All'!C190)+('Meter All'!C194-'Meter All'!C204-'Meter All'!C204))*'key-in'!D24</f>
         <v>0</v>
       </c>
       <c r="G92" s="56" t="s">
@@ -4419,7 +4441,7 @@
         <v>394</v>
       </c>
       <c r="F93" s="59">
-        <f ca="1">SUM(F85:F91)</f>
+        <f>SUM(F85:F91)</f>
         <v>0</v>
       </c>
       <c r="G93" s="56" t="s">
@@ -4435,7 +4457,7 @@
       <c r="D94" s="114"/>
       <c r="E94" s="52"/>
       <c r="F94" s="60">
-        <f ca="1">F93+F92</f>
+        <f>F93+F92</f>
         <v>0</v>
       </c>
       <c r="G94" s="56"/>
@@ -4458,7 +4480,7 @@
       </c>
       <c r="E96" s="52"/>
       <c r="F96" s="90">
-        <f ca="1">F70+F82+F94</f>
+        <f>F70+F82+F94</f>
         <v>0</v>
       </c>
       <c r="G96" s="56" t="s">
@@ -4496,7 +4518,7 @@
         <v>394</v>
       </c>
       <c r="F99" s="94">
-        <f ca="1">'Meter All'!C189</f>
+        <f>'Meter All'!C189</f>
         <v>0</v>
       </c>
       <c r="G99" s="95" t="s">
@@ -4534,7 +4556,7 @@
         <v>394</v>
       </c>
       <c r="F102" s="55">
-        <f ca="1">'Meter All'!C215*'key-in'!D25</f>
+        <f>'Meter All'!C215*'key-in'!D25</f>
         <v>0</v>
       </c>
       <c r="G102" s="56" t="s">
@@ -4552,7 +4574,7 @@
         <v>394</v>
       </c>
       <c r="F103" s="55">
-        <f ca="1">'Meter All'!C215*'key-in'!D26</f>
+        <f>'Meter All'!C215*'key-in'!D26</f>
         <v>0</v>
       </c>
       <c r="G103" s="56" t="s">
@@ -4570,7 +4592,7 @@
         <v>394</v>
       </c>
       <c r="F104" s="55">
-        <f ca="1">'Meter All'!C215*'key-in'!D27</f>
+        <f>'Meter All'!C215*'key-in'!D27</f>
         <v>0</v>
       </c>
       <c r="G104" s="56" t="s">
@@ -4588,7 +4610,7 @@
         <v>394</v>
       </c>
       <c r="F105" s="55">
-        <f ca="1">'Meter All'!C215*'key-in'!D28</f>
+        <f>'Meter All'!C215*'key-in'!D28</f>
         <v>0</v>
       </c>
       <c r="G105" s="56" t="s">
@@ -4606,7 +4628,7 @@
         <v>394</v>
       </c>
       <c r="F106" s="55">
-        <f ca="1">'Meter All'!C215*'key-in'!D29</f>
+        <f>'Meter All'!C215*'key-in'!D29</f>
         <v>0</v>
       </c>
       <c r="G106" s="56" t="s">
@@ -4624,7 +4646,7 @@
         <v>394</v>
       </c>
       <c r="F107" s="55">
-        <f ca="1">'Meter All'!C215*'key-in'!D30</f>
+        <f>'Meter All'!C215*'key-in'!D30</f>
         <v>0</v>
       </c>
       <c r="G107" s="56" t="s">
@@ -4642,7 +4664,7 @@
         <v>394</v>
       </c>
       <c r="F108" s="55">
-        <f ca="1">'Meter All'!C215*'key-in'!D31</f>
+        <f>'Meter All'!C215*'key-in'!D31</f>
         <v>0</v>
       </c>
       <c r="G108" s="56" t="s">
@@ -4678,7 +4700,7 @@
         <v>394</v>
       </c>
       <c r="F110" s="97">
-        <f ca="1">'Meter All'!C218</f>
+        <f>'Meter All'!C218</f>
         <v>0</v>
       </c>
       <c r="G110" s="56" t="s">
@@ -4697,7 +4719,7 @@
         <v>394</v>
       </c>
       <c r="F111" s="70">
-        <f ca="1">'Meter All'!C213-'Meter All'!C214-'Meter All'!C215-'Meter All'!C216-'Meter All'!C217-'Meter All'!C218-(0.5*'key-in'!D17)</f>
+        <f>'Meter All'!C213-'Meter All'!C214-'Meter All'!C215-'Meter All'!C216-'Meter All'!C217-'Meter All'!C218-(0.5*'key-in'!D17)</f>
         <v>0</v>
       </c>
       <c r="G111" s="56" t="s">
@@ -4716,7 +4738,7 @@
         <v>394</v>
       </c>
       <c r="F112" s="59">
-        <f ca="1">SUM(F102:F110)</f>
+        <f>SUM(F102:F110)</f>
         <v>0</v>
       </c>
       <c r="G112" s="56" t="s">
@@ -4732,7 +4754,7 @@
       <c r="D113" s="114"/>
       <c r="E113" s="52"/>
       <c r="F113" s="98">
-        <f ca="1">F112+F111</f>
+        <f>F112+F111</f>
         <v>0</v>
       </c>
       <c r="G113" s="56"/>
@@ -4768,7 +4790,7 @@
         <v>394</v>
       </c>
       <c r="F116" s="55">
-        <f ca="1">('Meter All'!C139-'Meter All'!C140)*90%</f>
+        <f>('Meter All'!C139-'Meter All'!C140)*90%</f>
         <v>0</v>
       </c>
       <c r="G116" s="56" t="s">
@@ -4786,7 +4808,7 @@
         <v>394</v>
       </c>
       <c r="F117" s="59">
-        <f ca="1">F116</f>
+        <f>F116</f>
         <v>0</v>
       </c>
       <c r="G117" s="56" t="s">
@@ -4802,7 +4824,7 @@
       <c r="D118" s="114"/>
       <c r="E118" s="52"/>
       <c r="F118" s="60">
-        <f ca="1">F117</f>
+        <f>F117</f>
         <v>0</v>
       </c>
       <c r="G118" s="56"/>
@@ -4838,7 +4860,7 @@
         <v>394</v>
       </c>
       <c r="F121" s="55">
-        <f ca="1">'Meter All'!C126</f>
+        <f>'Meter All'!C126</f>
         <v>0</v>
       </c>
       <c r="G121" s="56" t="s">
@@ -4856,7 +4878,7 @@
         <v>394</v>
       </c>
       <c r="F122" s="55">
-        <f ca="1">'Meter All'!C125</f>
+        <f>'Meter All'!C125</f>
         <v>0</v>
       </c>
       <c r="G122" s="56" t="s">
@@ -4890,7 +4912,7 @@
         <v>394</v>
       </c>
       <c r="F124" s="70">
-        <f ca="1">'Meter All'!C130-'Meter All'!C131</f>
+        <f>'Meter All'!C130-'Meter All'!C131</f>
         <v>0</v>
       </c>
       <c r="G124" s="56" t="s">
@@ -4909,7 +4931,7 @@
         <v>394</v>
       </c>
       <c r="F125" s="59">
-        <f ca="1">SUM(F121:F122)</f>
+        <f>SUM(F121:F122)</f>
         <v>0</v>
       </c>
       <c r="G125" s="56" t="s">
@@ -4926,7 +4948,7 @@
       <c r="D126" s="114"/>
       <c r="E126" s="52"/>
       <c r="F126" s="60">
-        <f ca="1">F125+F124</f>
+        <f>F125+F124</f>
         <v>0</v>
       </c>
       <c r="G126" s="56"/>
@@ -4962,7 +4984,7 @@
         <v>394</v>
       </c>
       <c r="F129" s="55">
-        <f ca="1">'Meter All'!C38</f>
+        <f>'Meter All'!C38</f>
         <v>0</v>
       </c>
       <c r="G129" s="56" t="s">
@@ -4980,7 +5002,7 @@
         <v>394</v>
       </c>
       <c r="F130" s="55">
-        <f ca="1">'Meter All'!C112+'Meter All'!C107</f>
+        <f>'Meter All'!C112+'Meter All'!C107</f>
         <v>0</v>
       </c>
       <c r="G130" s="56" t="s">
@@ -4998,7 +5020,7 @@
         <v>394</v>
       </c>
       <c r="F131" s="55">
-        <f ca="1">'Meter All'!C108</f>
+        <f>'Meter All'!C108</f>
         <v>0</v>
       </c>
       <c r="G131" s="56" t="s">
@@ -5016,7 +5038,7 @@
         <v>394</v>
       </c>
       <c r="F132" s="70">
-        <f ca="1">('Meter All'!C23-'Meter All'!C39-'Meter All'!C41)</f>
+        <f>('Meter All'!C23-'Meter All'!C39-'Meter All'!C41)</f>
         <v>0</v>
       </c>
       <c r="G132" s="56" t="s">
@@ -5034,7 +5056,7 @@
         <v>394</v>
       </c>
       <c r="F133" s="59">
-        <f ca="1">SUM(F129:F132)</f>
+        <f>SUM(F129:F132)</f>
         <v>0</v>
       </c>
       <c r="G133" s="56" t="s">
@@ -5090,7 +5112,7 @@
         <v>394</v>
       </c>
       <c r="F138" s="55">
-        <f ca="1">'Meter All'!C34-'Meter All'!C35</f>
+        <f>'Meter All'!C34-'Meter All'!C35</f>
         <v>0</v>
       </c>
       <c r="G138" s="56" t="s">
@@ -5108,7 +5130,7 @@
         <v>394</v>
       </c>
       <c r="F139" s="55">
-        <f ca="1">'Meter All'!C154</f>
+        <f>'Meter All'!C154</f>
         <v>0</v>
       </c>
       <c r="G139" s="56" t="s">
@@ -5126,7 +5148,7 @@
         <v>394</v>
       </c>
       <c r="F140" s="55">
-        <f ca="1">'Meter All'!C32</f>
+        <f>'Meter All'!C32</f>
         <v>0</v>
       </c>
       <c r="G140" s="56" t="s">
@@ -5155,7 +5177,7 @@
         <v>394</v>
       </c>
       <c r="F142" s="104">
-        <f ca="1">'Meter All'!C35+'Meter All'!C40+'Meter All'!C81-'Meter All'!C132+'Meter All'!C133-'Meter All'!C140+'Meter All'!C153+'Meter All'!C190-'Meter All'!C202</f>
+        <f>'Meter All'!C35+'Meter All'!C40+'Meter All'!C81-'Meter All'!C132+'Meter All'!C133-'Meter All'!C140+'Meter All'!C153+'Meter All'!C190-'Meter All'!C202</f>
         <v>0</v>
       </c>
       <c r="G142" s="83" t="s">
@@ -5173,7 +5195,7 @@
         <v>394</v>
       </c>
       <c r="F143" s="70">
-        <f ca="1">'Meter All'!C22</f>
+        <f>'Meter All'!C22</f>
         <v>0</v>
       </c>
       <c r="G143" s="56" t="s">
@@ -5191,7 +5213,7 @@
         <v>394</v>
       </c>
       <c r="F144" s="59">
-        <f ca="1">SUM(F138:F143)</f>
+        <f>SUM(F138:F143)</f>
         <v>0</v>
       </c>
       <c r="G144" s="56" t="s">
@@ -5229,7 +5251,7 @@
         <v>394</v>
       </c>
       <c r="F147" s="55">
-        <f ca="1">'Meter All'!C24</f>
+        <f>'Meter All'!C24</f>
         <v>0</v>
       </c>
       <c r="G147" s="56"/>
@@ -5245,7 +5267,7 @@
         <v>394</v>
       </c>
       <c r="F148" s="55">
-        <f ca="1">'Meter All'!C52</f>
+        <f>'Meter All'!C52</f>
         <v>0</v>
       </c>
       <c r="G148" s="56"/>
@@ -5261,7 +5283,7 @@
         <v>394</v>
       </c>
       <c r="F149" s="59">
-        <f ca="1">SUM(F147:F148)</f>
+        <f>SUM(F147:F148)</f>
         <v>0</v>
       </c>
       <c r="G149" s="56" t="s">
@@ -5299,7 +5321,7 @@
         <v>394</v>
       </c>
       <c r="F152" s="97">
-        <f ca="1">'Meter All'!C137*'key-in'!D32</f>
+        <f>'Meter All'!C137*'key-in'!D32</f>
         <v>0</v>
       </c>
       <c r="G152" s="56" t="s">
@@ -5317,7 +5339,7 @@
         <v>394</v>
       </c>
       <c r="F153" s="97">
-        <f ca="1">(0.15*'Meter All'!C103)</f>
+        <f>(0.15*'Meter All'!C103)</f>
         <v>0</v>
       </c>
       <c r="G153" s="56" t="s">
@@ -5335,7 +5357,7 @@
         <v>394</v>
       </c>
       <c r="F154" s="97">
-        <f ca="1">(0.85*'Meter All'!C103)</f>
+        <f>(0.85*'Meter All'!C103)</f>
         <v>0</v>
       </c>
       <c r="G154" s="56" t="s">
@@ -5353,7 +5375,7 @@
         <v>394</v>
       </c>
       <c r="F155" s="106">
-        <f ca="1">('Meter All'!C139-'Meter All'!C140)*0.1*'key-in'!D32</f>
+        <f>('Meter All'!C139-'Meter All'!C140)*0.1*'key-in'!D32</f>
         <v>0</v>
       </c>
       <c r="G155" s="56" t="s">
@@ -5371,7 +5393,7 @@
         <v>394</v>
       </c>
       <c r="F156" s="59">
-        <f ca="1">SUM(F152:F154)</f>
+        <f>SUM(F152:F154)</f>
         <v>0</v>
       </c>
       <c r="G156" s="56" t="s">
@@ -5387,7 +5409,7 @@
       <c r="D157" s="114"/>
       <c r="E157" s="52"/>
       <c r="F157" s="60">
-        <f ca="1">SUM(F152:F155)</f>
+        <f>SUM(F152:F155)</f>
         <v>0</v>
       </c>
       <c r="G157" s="56" t="s">
@@ -5425,7 +5447,7 @@
         <v>394</v>
       </c>
       <c r="F160" s="97">
-        <f ca="1">'Meter All'!C137*'key-in'!D33</f>
+        <f>'Meter All'!C137*'key-in'!D33</f>
         <v>0</v>
       </c>
       <c r="G160" s="56" t="s">
@@ -5443,7 +5465,7 @@
         <v>394</v>
       </c>
       <c r="F161" s="97">
-        <f ca="1">'Meter All'!C128-'Meter All'!C117</f>
+        <f>'Meter All'!C128-'Meter All'!C117</f>
         <v>0</v>
       </c>
       <c r="G161" s="56" t="s">
@@ -5461,7 +5483,7 @@
         <v>394</v>
       </c>
       <c r="F162" s="97">
-        <f ca="1">0.85*'Meter All'!C128-'Meter All'!C117</f>
+        <f>0.85*'Meter All'!C128-'Meter All'!C117</f>
         <v>0</v>
       </c>
       <c r="G162" s="56" t="s">
@@ -5479,7 +5501,7 @@
         <v>394</v>
       </c>
       <c r="F163" s="106">
-        <f ca="1">('Meter All'!C147-'Meter All'!C148)*0.1*'key-in'!D33</f>
+        <f>('Meter All'!C147-'Meter All'!C148)*0.1*'key-in'!D33</f>
         <v>0</v>
       </c>
       <c r="G163" s="56" t="s">
@@ -5497,7 +5519,7 @@
         <v>394</v>
       </c>
       <c r="F164" s="59">
-        <f ca="1">SUM(F160:F162)</f>
+        <f>SUM(F160:F162)</f>
         <v>0</v>
       </c>
       <c r="G164" s="56" t="s">
@@ -5513,7 +5535,7 @@
       <c r="D165" s="114"/>
       <c r="E165" s="52"/>
       <c r="F165" s="60">
-        <f ca="1">SUM(F160:F163)</f>
+        <f>SUM(F160:F163)</f>
         <v>0</v>
       </c>
       <c r="G165" s="56" t="s">
@@ -5551,7 +5573,7 @@
         <v>394</v>
       </c>
       <c r="F168" s="97">
-        <f ca="1">'Meter All'!C118</f>
+        <f>'Meter All'!C118</f>
         <v>0</v>
       </c>
       <c r="G168" s="56" t="s">
@@ -5569,7 +5591,7 @@
         <v>394</v>
       </c>
       <c r="F169" s="106">
-        <f ca="1">'Meter All'!C119</f>
+        <f>'Meter All'!C119</f>
         <v>0</v>
       </c>
       <c r="G169" s="56" t="s">
@@ -5587,7 +5609,7 @@
         <v>394</v>
       </c>
       <c r="F170" s="106">
-        <f ca="1">'Meter All'!C121</f>
+        <f>'Meter All'!C121</f>
         <v>0</v>
       </c>
       <c r="G170" s="56" t="s">
@@ -5605,7 +5627,7 @@
         <v>394</v>
       </c>
       <c r="F171" s="90">
-        <f ca="1">SUM(F168:F170)</f>
+        <f>SUM(F168:F170)</f>
         <v>0</v>
       </c>
       <c r="G171" s="56" t="s">
@@ -5623,7 +5645,7 @@
         <v>394</v>
       </c>
       <c r="F172" s="107">
-        <f ca="1">'Meter All'!C82</f>
+        <f>'Meter All'!C82</f>
         <v>0</v>
       </c>
       <c r="G172" s="56" t="s">
@@ -5641,7 +5663,7 @@
         <v>394</v>
       </c>
       <c r="F173" s="106">
-        <f ca="1">'Meter All'!C120</f>
+        <f>'Meter All'!C120</f>
         <v>0</v>
       </c>
       <c r="G173" s="56" t="s">
@@ -5657,7 +5679,7 @@
       <c r="D174" s="114"/>
       <c r="E174" s="52"/>
       <c r="F174" s="59">
-        <f ca="1">SUM(F172:F173)</f>
+        <f>SUM(F172:F173)</f>
         <v>0</v>
       </c>
       <c r="G174" s="56" t="s">
@@ -5693,7 +5715,7 @@
         <v>394</v>
       </c>
       <c r="F177" s="90">
-        <f ca="1">SUM(F178:F178)</f>
+        <f>SUM(F178:F178)</f>
         <v>0</v>
       </c>
       <c r="G177" s="56" t="s">
@@ -5711,7 +5733,7 @@
         <v>394</v>
       </c>
       <c r="F178" s="59">
-        <f ca="1">'Meter All'!C66</f>
+        <f>'Meter All'!C66</f>
         <v>0</v>
       </c>
       <c r="G178" s="56" t="s">
@@ -5911,8 +5933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71B61E9-188D-4762-B7B2-2BBE520464E7}">
   <dimension ref="A2:P227"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -6726,9 +6748,9 @@
       <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:9" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -6756,33 +6778,23 @@
       <c r="B10" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C10" s="28" cm="1">
+        <f t="array" ref="C10">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A10, FIND("~", SUBSTITUTE(A10, ".", "~", LEN(A10) - LEN(SUBSTITUTE(A10, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A10, FIND("~", SUBSTITUTE(A10, ".", "~", LEN(A10) - LEN(SUBSTITUTE(A10, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -6801,33 +6813,23 @@
       <c r="B11" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C11" s="28" cm="1">
+        <f t="array" ref="C11">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A11, FIND("~", SUBSTITUTE(A11, ".", "~", LEN(A11) - LEN(SUBSTITUTE(A11, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A11, FIND("~", SUBSTITUTE(A11, ".", "~", LEN(A11) - LEN(SUBSTITUTE(A11, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -6853,33 +6855,23 @@
       <c r="B13" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C13" s="28" cm="1">
+        <f t="array" ref="C13">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A13, FIND("~", SUBSTITUTE(A13, ".", "~", LEN(A13) - LEN(SUBSTITUTE(A13, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A13, FIND("~", SUBSTITUTE(A13, ".", "~", LEN(A13) - LEN(SUBSTITUTE(A13, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -6892,33 +6884,23 @@
       <c r="B14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C14" s="28" cm="1">
+        <f t="array" ref="C14">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A14, FIND("~", SUBSTITUTE(A14, ".", "~", LEN(A14) - LEN(SUBSTITUTE(A14, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A14, FIND("~", SUBSTITUTE(A14, ".", "~", LEN(A14) - LEN(SUBSTITUTE(A14, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -6931,33 +6913,23 @@
       <c r="B15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C15" s="28" cm="1">
+        <f t="array" ref="C15">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A15, FIND("~", SUBSTITUTE(A15, ".", "~", LEN(A15) - LEN(SUBSTITUTE(A15, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A15, FIND("~", SUBSTITUTE(A15, ".", "~", LEN(A15) - LEN(SUBSTITUTE(A15, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -6970,33 +6942,23 @@
       <c r="B16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C16" s="28" cm="1">
+        <f t="array" ref="C16">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A16, FIND("~", SUBSTITUTE(A16, ".", "~", LEN(A16) - LEN(SUBSTITUTE(A16, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A16, FIND("~", SUBSTITUTE(A16, ".", "~", LEN(A16) - LEN(SUBSTITUTE(A16, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7009,33 +6971,23 @@
       <c r="B17" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C17" s="28" cm="1">
+        <f t="array" ref="C17">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A17, FIND("~", SUBSTITUTE(A17, ".", "~", LEN(A17) - LEN(SUBSTITUTE(A17, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A17, FIND("~", SUBSTITUTE(A17, ".", "~", LEN(A17) - LEN(SUBSTITUTE(A17, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7048,33 +7000,23 @@
       <c r="B18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C18" s="28" cm="1">
+        <f t="array" ref="C18">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A18, FIND("~", SUBSTITUTE(A18, ".", "~", LEN(A18) - LEN(SUBSTITUTE(A18, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A18, FIND("~", SUBSTITUTE(A18, ".", "~", LEN(A18) - LEN(SUBSTITUTE(A18, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7087,33 +7029,23 @@
       <c r="B19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C19" s="28" cm="1">
+        <f t="array" ref="C19">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A19, FIND("~", SUBSTITUTE(A19, ".", "~", LEN(A19) - LEN(SUBSTITUTE(A19, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A19, FIND("~", SUBSTITUTE(A19, ".", "~", LEN(A19) - LEN(SUBSTITUTE(A19, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7126,33 +7058,23 @@
       <c r="B20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C20" s="28" cm="1">
+        <f t="array" ref="C20">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A20, FIND("~", SUBSTITUTE(A20, ".", "~", LEN(A20) - LEN(SUBSTITUTE(A20, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A20, FIND("~", SUBSTITUTE(A20, ".", "~", LEN(A20) - LEN(SUBSTITUTE(A20, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7165,33 +7087,23 @@
       <c r="B21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C21" s="28" cm="1">
+        <f t="array" ref="C21">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A21, FIND("~", SUBSTITUTE(A21, ".", "~", LEN(A21) - LEN(SUBSTITUTE(A21, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A21, FIND("~", SUBSTITUTE(A21, ".", "~", LEN(A21) - LEN(SUBSTITUTE(A21, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7204,33 +7116,23 @@
       <c r="B22" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C22" s="28" cm="1">
+        <f t="array" ref="C22">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A22, FIND("~", SUBSTITUTE(A22, ".", "~", LEN(A22) - LEN(SUBSTITUTE(A22, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A22, FIND("~", SUBSTITUTE(A22, ".", "~", LEN(A22) - LEN(SUBSTITUTE(A22, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7243,33 +7145,23 @@
       <c r="B23" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C23" s="28" cm="1">
+        <f t="array" ref="C23">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A23, FIND("~", SUBSTITUTE(A23, ".", "~", LEN(A23) - LEN(SUBSTITUTE(A23, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A23, FIND("~", SUBSTITUTE(A23, ".", "~", LEN(A23) - LEN(SUBSTITUTE(A23, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7282,33 +7174,23 @@
       <c r="B24" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C24" s="28" cm="1">
+        <f t="array" ref="C24">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A24, FIND("~", SUBSTITUTE(A24, ".", "~", LEN(A24) - LEN(SUBSTITUTE(A24, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A24, FIND("~", SUBSTITUTE(A24, ".", "~", LEN(A24) - LEN(SUBSTITUTE(A24, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7325,33 +7207,23 @@
       <c r="B25" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C25" s="28" cm="1">
+        <f t="array" ref="C25">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A25, FIND("~", SUBSTITUTE(A25, ".", "~", LEN(A25) - LEN(SUBSTITUTE(A25, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A25, FIND("~", SUBSTITUTE(A25, ".", "~", LEN(A25) - LEN(SUBSTITUTE(A25, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7368,33 +7240,23 @@
       <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C26" s="28" cm="1">
+        <f t="array" ref="C26">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A26, FIND("~", SUBSTITUTE(A26, ".", "~", LEN(A26) - LEN(SUBSTITUTE(A26, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A26, FIND("~", SUBSTITUTE(A26, ".", "~", LEN(A26) - LEN(SUBSTITUTE(A26, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7411,33 +7273,23 @@
       <c r="B27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C27" s="28" cm="1">
+        <f t="array" ref="C27">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A27, FIND("~", SUBSTITUTE(A27, ".", "~", LEN(A27) - LEN(SUBSTITUTE(A27, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A27, FIND("~", SUBSTITUTE(A27, ".", "~", LEN(A27) - LEN(SUBSTITUTE(A27, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7454,33 +7306,23 @@
       <c r="B28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C28" s="28" cm="1">
+        <f t="array" ref="C28">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A28, FIND("~", SUBSTITUTE(A28, ".", "~", LEN(A28) - LEN(SUBSTITUTE(A28, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A28, FIND("~", SUBSTITUTE(A28, ".", "~", LEN(A28) - LEN(SUBSTITUTE(A28, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7497,33 +7339,23 @@
       <c r="B29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C29" s="28" cm="1">
+        <f t="array" ref="C29">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A29, FIND("~", SUBSTITUTE(A29, ".", "~", LEN(A29) - LEN(SUBSTITUTE(A29, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A29, FIND("~", SUBSTITUTE(A29, ".", "~", LEN(A29) - LEN(SUBSTITUTE(A29, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7542,33 +7374,23 @@
       <c r="B30" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C30" s="28" cm="1">
+        <f t="array" ref="C30">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A30, FIND("~", SUBSTITUTE(A30, ".", "~", LEN(A30) - LEN(SUBSTITUTE(A30, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A30, FIND("~", SUBSTITUTE(A30, ".", "~", LEN(A30) - LEN(SUBSTITUTE(A30, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7587,33 +7409,23 @@
       <c r="B31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C31" s="28" cm="1">
+        <f t="array" ref="C31">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A31, FIND("~", SUBSTITUTE(A31, ".", "~", LEN(A31) - LEN(SUBSTITUTE(A31, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A31, FIND("~", SUBSTITUTE(A31, ".", "~", LEN(A31) - LEN(SUBSTITUTE(A31, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7632,33 +7444,23 @@
       <c r="B32" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C32" s="28" cm="1">
+        <f t="array" ref="C32">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A32, FIND("~", SUBSTITUTE(A32, ".", "~", LEN(A32) - LEN(SUBSTITUTE(A32, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A32, FIND("~", SUBSTITUTE(A32, ".", "~", LEN(A32) - LEN(SUBSTITUTE(A32, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7690,33 +7492,23 @@
       <c r="B34" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C34" s="28" cm="1">
+        <f t="array" ref="C34">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A34, FIND("~", SUBSTITUTE(A34, ".", "~", LEN(A34) - LEN(SUBSTITUTE(A34, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A34, FIND("~", SUBSTITUTE(A34, ".", "~", LEN(A34) - LEN(SUBSTITUTE(A34, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7735,33 +7527,23 @@
       <c r="B35" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C35" s="28" cm="1">
+        <f t="array" ref="C35">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A35, FIND("~", SUBSTITUTE(A35, ".", "~", LEN(A35) - LEN(SUBSTITUTE(A35, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A35, FIND("~", SUBSTITUTE(A35, ".", "~", LEN(A35) - LEN(SUBSTITUTE(A35, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7787,11 +7569,11 @@
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A37" s="131" t="s">
+      <c r="A37" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="132"/>
-      <c r="C37" s="133"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="130"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -7805,33 +7587,23 @@
       <c r="B38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C38" s="28" cm="1">
+        <f t="array" ref="C38">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A38, FIND("~", SUBSTITUTE(A38, ".", "~", LEN(A38) - LEN(SUBSTITUTE(A38, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A38, FIND("~", SUBSTITUTE(A38, ".", "~", LEN(A38) - LEN(SUBSTITUTE(A38, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7849,33 +7621,23 @@
       <c r="B39" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C39" s="28" cm="1">
+        <f t="array" ref="C39">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A39, FIND("~", SUBSTITUTE(A39, ".", "~", LEN(A39) - LEN(SUBSTITUTE(A39, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A39, FIND("~", SUBSTITUTE(A39, ".", "~", LEN(A39) - LEN(SUBSTITUTE(A39, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7893,33 +7655,23 @@
       <c r="B40" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C40" s="28" cm="1">
+        <f t="array" ref="C40">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A40, FIND("~", SUBSTITUTE(A40, ".", "~", LEN(A40) - LEN(SUBSTITUTE(A40, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A40, FIND("~", SUBSTITUTE(A40, ".", "~", LEN(A40) - LEN(SUBSTITUTE(A40, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7937,33 +7689,23 @@
       <c r="B41" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C41" s="28" cm="1">
+        <f t="array" ref="C41">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A41, FIND("~", SUBSTITUTE(A41, ".", "~", LEN(A41) - LEN(SUBSTITUTE(A41, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A41, FIND("~", SUBSTITUTE(A41, ".", "~", LEN(A41) - LEN(SUBSTITUTE(A41, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -7987,11 +7729,11 @@
       <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:9" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A43" s="131" t="s">
+      <c r="A43" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="132"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
@@ -8005,33 +7747,23 @@
       <c r="B44" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C44" s="28" cm="1">
+        <f t="array" ref="C44">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A44, FIND("~", SUBSTITUTE(A44, ".", "~", LEN(A44) - LEN(SUBSTITUTE(A44, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A44, FIND("~", SUBSTITUTE(A44, ".", "~", LEN(A44) - LEN(SUBSTITUTE(A44, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8049,33 +7781,23 @@
       <c r="B45" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="C45" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C45" s="28" cm="1">
+        <f t="array" ref="C45">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A45, FIND("~", SUBSTITUTE(A45, ".", "~", LEN(A45) - LEN(SUBSTITUTE(A45, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A45, FIND("~", SUBSTITUTE(A45, ".", "~", LEN(A45) - LEN(SUBSTITUTE(A45, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8093,33 +7815,23 @@
       <c r="B46" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C46" s="28" cm="1">
+        <f t="array" ref="C46">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A46, FIND("~", SUBSTITUTE(A46, ".", "~", LEN(A46) - LEN(SUBSTITUTE(A46, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A46, FIND("~", SUBSTITUTE(A46, ".", "~", LEN(A46) - LEN(SUBSTITUTE(A46, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8131,11 +7843,11 @@
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:9" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A47" s="131" t="s">
+      <c r="A47" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="132"/>
-      <c r="C47" s="133"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="130"/>
     </row>
     <row r="48" spans="1:9" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A48" s="26" t="s">
@@ -8144,33 +7856,23 @@
       <c r="B48" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C48" s="28" cm="1">
+        <f t="array" ref="C48">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A48, FIND("~", SUBSTITUTE(A48, ".", "~", LEN(A48) - LEN(SUBSTITUTE(A48, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A48, FIND("~", SUBSTITUTE(A48, ".", "~", LEN(A48) - LEN(SUBSTITUTE(A48, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8183,51 +7885,41 @@
       <c r="B49" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C49" s="28" cm="1">
+        <f t="array" ref="C49">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A49, FIND("~", SUBSTITUTE(A49, ".", "~", LEN(A49) - LEN(SUBSTITUTE(A49, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A49, FIND("~", SUBSTITUTE(A49, ".", "~", LEN(A49) - LEN(SUBSTITUTE(A49, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A50" s="128" t="s">
+      <c r="A50" s="131" t="s">
         <v>229</v>
       </c>
-      <c r="B50" s="129"/>
-      <c r="C50" s="130"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="133"/>
     </row>
     <row r="51" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A51" s="131" t="s">
+      <c r="A51" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="132"/>
-      <c r="C51" s="133"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="130"/>
     </row>
     <row r="52" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A52" s="26" t="s">
@@ -8236,33 +7928,23 @@
       <c r="B52" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C52" s="28" cm="1">
+        <f t="array" ref="C52">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A52, FIND("~", SUBSTITUTE(A52, ".", "~", LEN(A52) - LEN(SUBSTITUTE(A52, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A52, FIND("~", SUBSTITUTE(A52, ".", "~", LEN(A52) - LEN(SUBSTITUTE(A52, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8275,33 +7957,23 @@
       <c r="B53" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C53" s="28" cm="1">
+        <f t="array" ref="C53">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A53, FIND("~", SUBSTITUTE(A53, ".", "~", LEN(A53) - LEN(SUBSTITUTE(A53, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A53, FIND("~", SUBSTITUTE(A53, ".", "~", LEN(A53) - LEN(SUBSTITUTE(A53, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8314,33 +7986,23 @@
       <c r="B54" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C54" s="28" cm="1">
+        <f t="array" ref="C54">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A54, FIND("~", SUBSTITUTE(A54, ".", "~", LEN(A54) - LEN(SUBSTITUTE(A54, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A54, FIND("~", SUBSTITUTE(A54, ".", "~", LEN(A54) - LEN(SUBSTITUTE(A54, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8349,44 +8011,34 @@
     <row r="55" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A55" s="26"/>
       <c r="B55" s="27"/>
-      <c r="C55" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C55" s="28" cm="1">
+        <f t="array" ref="C55">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A55, FIND("~", SUBSTITUTE(A55, ".", "~", LEN(A55) - LEN(SUBSTITUTE(A55, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A55, FIND("~", SUBSTITUTE(A55, ".", "~", LEN(A55) - LEN(SUBSTITUTE(A55, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A56" s="131" t="s">
+      <c r="A56" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="132"/>
-      <c r="C56" s="133"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="130"/>
     </row>
     <row r="57" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -8395,33 +8047,23 @@
       <c r="B57" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C57" s="28" cm="1">
+        <f t="array" ref="C57">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A57, FIND("~", SUBSTITUTE(A57, ".", "~", LEN(A57) - LEN(SUBSTITUTE(A57, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A57, FIND("~", SUBSTITUTE(A57, ".", "~", LEN(A57) - LEN(SUBSTITUTE(A57, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8434,33 +8076,23 @@
       <c r="B58" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C58" s="28" cm="1">
+        <f t="array" ref="C58">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A58, FIND("~", SUBSTITUTE(A58, ".", "~", LEN(A58) - LEN(SUBSTITUTE(A58, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A58, FIND("~", SUBSTITUTE(A58, ".", "~", LEN(A58) - LEN(SUBSTITUTE(A58, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8473,33 +8105,23 @@
       <c r="B59" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C59" s="28" cm="1">
+        <f t="array" ref="C59">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A59, FIND("~", SUBSTITUTE(A59, ".", "~", LEN(A59) - LEN(SUBSTITUTE(A59, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A59, FIND("~", SUBSTITUTE(A59, ".", "~", LEN(A59) - LEN(SUBSTITUTE(A59, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8512,33 +8134,23 @@
       <c r="B60" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C60" s="28" cm="1">
+        <f t="array" ref="C60">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A60, FIND("~", SUBSTITUTE(A60, ".", "~", LEN(A60) - LEN(SUBSTITUTE(A60, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A60, FIND("~", SUBSTITUTE(A60, ".", "~", LEN(A60) - LEN(SUBSTITUTE(A60, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8551,51 +8163,41 @@
       <c r="B61" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C61" s="28" cm="1">
+        <f t="array" ref="C61">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A61, FIND("~", SUBSTITUTE(A61, ".", "~", LEN(A61) - LEN(SUBSTITUTE(A61, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A61, FIND("~", SUBSTITUTE(A61, ".", "~", LEN(A61) - LEN(SUBSTITUTE(A61, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="131" t="s">
         <v>238</v>
       </c>
-      <c r="B62" s="129"/>
-      <c r="C62" s="130"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="133"/>
     </row>
     <row r="63" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A63" s="131" t="s">
+      <c r="A63" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="132"/>
-      <c r="C63" s="133"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="130"/>
     </row>
     <row r="64" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A64" s="26" t="s">
@@ -8604,33 +8206,23 @@
       <c r="B64" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C64" s="28" cm="1">
+        <f t="array" ref="C64">IFERROR(
+   ABS( INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A64, FIND("~", SUBSTITUTE(A64, ".", "~", LEN(A64) - LEN(SUBSTITUTE(A64, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) )- ABS( INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A64, FIND("~", SUBSTITUTE(A64, ".", "~", LEN(A64) - LEN(SUBSTITUTE(A64, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    )),
     0
 )</f>
         <v>0</v>
@@ -8643,33 +8235,23 @@
       <c r="B65" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C65" s="28" cm="1">
+        <f t="array" ref="C65">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A65, FIND("~", SUBSTITUTE(A65, ".", "~", LEN(A65) - LEN(SUBSTITUTE(A65, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A65, FIND("~", SUBSTITUTE(A65, ".", "~", LEN(A65) - LEN(SUBSTITUTE(A65, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8682,44 +8264,34 @@
       <c r="B66" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C66" s="28" cm="1">
+        <f t="array" ref="C66">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A66, FIND("~", SUBSTITUTE(A66, ".", "~", LEN(A66) - LEN(SUBSTITUTE(A66, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A66, FIND("~", SUBSTITUTE(A66, ".", "~", LEN(A66) - LEN(SUBSTITUTE(A66, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A67" s="131" t="s">
+      <c r="A67" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="132"/>
-      <c r="C67" s="133"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="130"/>
     </row>
     <row r="68" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A68" s="26" t="s">
@@ -8728,33 +8300,23 @@
       <c r="B68" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C68" s="28" cm="1">
+        <f t="array" ref="C68">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A68, FIND("~", SUBSTITUTE(A68, ".", "~", LEN(A68) - LEN(SUBSTITUTE(A68, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A68, FIND("~", SUBSTITUTE(A68, ".", "~", LEN(A68) - LEN(SUBSTITUTE(A68, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8767,33 +8329,23 @@
       <c r="B69" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C69" s="28" cm="1">
+        <f t="array" ref="C69">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A69, FIND("~", SUBSTITUTE(A69, ".", "~", LEN(A69) - LEN(SUBSTITUTE(A69, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A69, FIND("~", SUBSTITUTE(A69, ".", "~", LEN(A69) - LEN(SUBSTITUTE(A69, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8806,33 +8358,23 @@
       <c r="B70" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C70" s="28" cm="1">
+        <f t="array" ref="C70">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A70, FIND("~", SUBSTITUTE(A70, ".", "~", LEN(A70) - LEN(SUBSTITUTE(A70, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A70, FIND("~", SUBSTITUTE(A70, ".", "~", LEN(A70) - LEN(SUBSTITUTE(A70, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8845,33 +8387,23 @@
       <c r="B71" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C71" s="28" cm="1">
+        <f t="array" ref="C71">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A71, FIND("~", SUBSTITUTE(A71, ".", "~", LEN(A71) - LEN(SUBSTITUTE(A71, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A71, FIND("~", SUBSTITUTE(A71, ".", "~", LEN(A71) - LEN(SUBSTITUTE(A71, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8884,51 +8416,41 @@
       <c r="B72" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C72" s="28" cm="1">
+        <f t="array" ref="C72">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A72, FIND("~", SUBSTITUTE(A72, ".", "~", LEN(A72) - LEN(SUBSTITUTE(A72, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A72, FIND("~", SUBSTITUTE(A72, ".", "~", LEN(A72) - LEN(SUBSTITUTE(A72, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A73" s="128" t="s">
+      <c r="A73" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="B73" s="129"/>
-      <c r="C73" s="130"/>
+      <c r="B73" s="132"/>
+      <c r="C73" s="133"/>
     </row>
     <row r="74" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A74" s="131" t="s">
+      <c r="A74" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="132"/>
-      <c r="C74" s="133"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="130"/>
     </row>
     <row r="75" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A75" s="26" t="s">
@@ -8937,33 +8459,23 @@
       <c r="B75" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C75" s="28" cm="1">
+        <f t="array" ref="C75">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A75, FIND("~", SUBSTITUTE(A75, ".", "~", LEN(A75) - LEN(SUBSTITUTE(A75, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A75, FIND("~", SUBSTITUTE(A75, ".", "~", LEN(A75) - LEN(SUBSTITUTE(A75, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -8976,33 +8488,23 @@
       <c r="B76" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C76" s="28" cm="1">
+        <f t="array" ref="C76">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A76, FIND("~", SUBSTITUTE(A76, ".", "~", LEN(A76) - LEN(SUBSTITUTE(A76, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A76, FIND("~", SUBSTITUTE(A76, ".", "~", LEN(A76) - LEN(SUBSTITUTE(A76, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9017,33 +8519,23 @@
       <c r="B77" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C77" s="28" cm="1">
+        <f t="array" ref="C77">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A77, FIND("~", SUBSTITUTE(A77, ".", "~", LEN(A77) - LEN(SUBSTITUTE(A77, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A77, FIND("~", SUBSTITUTE(A77, ".", "~", LEN(A77) - LEN(SUBSTITUTE(A77, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9058,33 +8550,23 @@
       <c r="B78" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C78" s="28" cm="1">
+        <f t="array" ref="C78">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A78, FIND("~", SUBSTITUTE(A78, ".", "~", LEN(A78) - LEN(SUBSTITUTE(A78, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A78, FIND("~", SUBSTITUTE(A78, ".", "~", LEN(A78) - LEN(SUBSTITUTE(A78, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9099,33 +8581,23 @@
       <c r="B79" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C79" s="28" cm="1">
+        <f t="array" ref="C79">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A79, FIND("~", SUBSTITUTE(A79, ".", "~", LEN(A79) - LEN(SUBSTITUTE(A79, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A79, FIND("~", SUBSTITUTE(A79, ".", "~", LEN(A79) - LEN(SUBSTITUTE(A79, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9140,33 +8612,23 @@
       <c r="B80" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C80" s="28" cm="1">
+        <f t="array" ref="C80">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A80, FIND("~", SUBSTITUTE(A80, ".", "~", LEN(A80) - LEN(SUBSTITUTE(A80, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A80, FIND("~", SUBSTITUTE(A80, ".", "~", LEN(A80) - LEN(SUBSTITUTE(A80, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9181,33 +8643,23 @@
       <c r="B81" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C81" s="28" cm="1">
+        <f t="array" ref="C81">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A81, FIND("~", SUBSTITUTE(A81, ".", "~", LEN(A81) - LEN(SUBSTITUTE(A81, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A81, FIND("~", SUBSTITUTE(A81, ".", "~", LEN(A81) - LEN(SUBSTITUTE(A81, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9222,33 +8674,23 @@
       <c r="B82" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C82" s="28" cm="1">
+        <f t="array" ref="C82">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A82, FIND("~", SUBSTITUTE(A82, ".", "~", LEN(A82) - LEN(SUBSTITUTE(A82, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A82, FIND("~", SUBSTITUTE(A82, ".", "~", LEN(A82) - LEN(SUBSTITUTE(A82, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9257,11 +8699,11 @@
       <c r="E82" s="25"/>
     </row>
     <row r="83" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A83" s="131" t="s">
+      <c r="A83" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="132"/>
-      <c r="C83" s="133"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="130"/>
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
     </row>
@@ -9272,33 +8714,23 @@
       <c r="B84" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C84" s="28" cm="1">
+        <f t="array" ref="C84">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A84, FIND("~", SUBSTITUTE(A84, ".", "~", LEN(A84) - LEN(SUBSTITUTE(A84, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A84, FIND("~", SUBSTITUTE(A84, ".", "~", LEN(A84) - LEN(SUBSTITUTE(A84, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9318,33 +8750,23 @@
       <c r="B85" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C85" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C85" s="28" cm="1">
+        <f t="array" ref="C85">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A85, FIND("~", SUBSTITUTE(A85, ".", "~", LEN(A85) - LEN(SUBSTITUTE(A85, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A85, FIND("~", SUBSTITUTE(A85, ".", "~", LEN(A85) - LEN(SUBSTITUTE(A85, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9364,33 +8786,23 @@
       <c r="B86" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C86" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C86" s="28" cm="1">
+        <f t="array" ref="C86">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A86, FIND("~", SUBSTITUTE(A86, ".", "~", LEN(A86) - LEN(SUBSTITUTE(A86, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A86, FIND("~", SUBSTITUTE(A86, ".", "~", LEN(A86) - LEN(SUBSTITUTE(A86, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9410,33 +8822,23 @@
       <c r="B87" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C87" s="28" cm="1">
+        <f t="array" ref="C87">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A87, FIND("~", SUBSTITUTE(A87, ".", "~", LEN(A87) - LEN(SUBSTITUTE(A87, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A87, FIND("~", SUBSTITUTE(A87, ".", "~", LEN(A87) - LEN(SUBSTITUTE(A87, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9450,18 +8852,18 @@
       <c r="J87" s="25"/>
     </row>
     <row r="88" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A88" s="128" t="s">
+      <c r="A88" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="130"/>
+      <c r="B88" s="132"/>
+      <c r="C88" s="133"/>
     </row>
     <row r="89" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A89" s="131" t="s">
+      <c r="A89" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="132"/>
-      <c r="C89" s="133"/>
+      <c r="B89" s="129"/>
+      <c r="C89" s="130"/>
     </row>
     <row r="90" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A90" s="26" t="s">
@@ -9470,33 +8872,23 @@
       <c r="B90" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C90" s="28" cm="1">
+        <f t="array" ref="C90">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A90, FIND("~", SUBSTITUTE(A90, ".", "~", LEN(A90) - LEN(SUBSTITUTE(A90, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A90, FIND("~", SUBSTITUTE(A90, ".", "~", LEN(A90) - LEN(SUBSTITUTE(A90, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9509,33 +8901,23 @@
       <c r="B91" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C91" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C91" s="28" cm="1">
+        <f t="array" ref="C91">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A91, FIND("~", SUBSTITUTE(A91, ".", "~", LEN(A91) - LEN(SUBSTITUTE(A91, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A91, FIND("~", SUBSTITUTE(A91, ".", "~", LEN(A91) - LEN(SUBSTITUTE(A91, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9548,33 +8930,23 @@
       <c r="B92" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C92" s="28" cm="1">
+        <f t="array" ref="C92">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A92, FIND("~", SUBSTITUTE(A92, ".", "~", LEN(A92) - LEN(SUBSTITUTE(A92, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A92, FIND("~", SUBSTITUTE(A92, ".", "~", LEN(A92) - LEN(SUBSTITUTE(A92, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9587,33 +8959,23 @@
       <c r="B93" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C93" s="28" cm="1">
+        <f t="array" ref="C93">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A93, FIND("~", SUBSTITUTE(A93, ".", "~", LEN(A93) - LEN(SUBSTITUTE(A93, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A93, FIND("~", SUBSTITUTE(A93, ".", "~", LEN(A93) - LEN(SUBSTITUTE(A93, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9626,33 +8988,23 @@
       <c r="B94" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C94" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C94" s="28" cm="1">
+        <f t="array" ref="C94">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A94, FIND("~", SUBSTITUTE(A94, ".", "~", LEN(A94) - LEN(SUBSTITUTE(A94, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A94, FIND("~", SUBSTITUTE(A94, ".", "~", LEN(A94) - LEN(SUBSTITUTE(A94, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9665,44 +9017,34 @@
       <c r="B95" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C95" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C95" s="28" cm="1">
+        <f t="array" ref="C95">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A95, FIND("~", SUBSTITUTE(A95, ".", "~", LEN(A95) - LEN(SUBSTITUTE(A95, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A95, FIND("~", SUBSTITUTE(A95, ".", "~", LEN(A95) - LEN(SUBSTITUTE(A95, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A96" s="131" t="s">
+      <c r="A96" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="132"/>
-      <c r="C96" s="133"/>
+      <c r="B96" s="129"/>
+      <c r="C96" s="130"/>
     </row>
     <row r="97" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A97" s="26" t="s">
@@ -9711,33 +9053,23 @@
       <c r="B97" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C97" s="28" cm="1">
+        <f t="array" ref="C97">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A97, FIND("~", SUBSTITUTE(A97, ".", "~", LEN(A97) - LEN(SUBSTITUTE(A97, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A97, FIND("~", SUBSTITUTE(A97, ".", "~", LEN(A97) - LEN(SUBSTITUTE(A97, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9750,33 +9082,23 @@
       <c r="B98" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C98" s="28" cm="1">
+        <f t="array" ref="C98">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A98, FIND("~", SUBSTITUTE(A98, ".", "~", LEN(A98) - LEN(SUBSTITUTE(A98, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A98, FIND("~", SUBSTITUTE(A98, ".", "~", LEN(A98) - LEN(SUBSTITUTE(A98, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9789,33 +9111,23 @@
       <c r="B99" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C99" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C99" s="28" cm="1">
+        <f t="array" ref="C99">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A99, FIND("~", SUBSTITUTE(A99, ".", "~", LEN(A99) - LEN(SUBSTITUTE(A99, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A99, FIND("~", SUBSTITUTE(A99, ".", "~", LEN(A99) - LEN(SUBSTITUTE(A99, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9828,33 +9140,23 @@
       <c r="B100" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C100" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C100" s="28" cm="1">
+        <f t="array" ref="C100">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A100, FIND("~", SUBSTITUTE(A100, ".", "~", LEN(A100) - LEN(SUBSTITUTE(A100, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A100, FIND("~", SUBSTITUTE(A100, ".", "~", LEN(A100) - LEN(SUBSTITUTE(A100, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9867,33 +9169,23 @@
       <c r="B101" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C101" s="28" cm="1">
+        <f t="array" ref="C101">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A101, FIND("~", SUBSTITUTE(A101, ".", "~", LEN(A101) - LEN(SUBSTITUTE(A101, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A101, FIND("~", SUBSTITUTE(A101, ".", "~", LEN(A101) - LEN(SUBSTITUTE(A101, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9906,33 +9198,23 @@
       <c r="B102" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C102" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C102" s="28" cm="1">
+        <f t="array" ref="C102">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A102, FIND("~", SUBSTITUTE(A102, ".", "~", LEN(A102) - LEN(SUBSTITUTE(A102, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A102, FIND("~", SUBSTITUTE(A102, ".", "~", LEN(A102) - LEN(SUBSTITUTE(A102, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9945,33 +9227,23 @@
       <c r="B103" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C103" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C103" s="28" cm="1">
+        <f t="array" ref="C103">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A103, FIND("~", SUBSTITUTE(A103, ".", "~", LEN(A103) - LEN(SUBSTITUTE(A103, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A103, FIND("~", SUBSTITUTE(A103, ".", "~", LEN(A103) - LEN(SUBSTITUTE(A103, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -9984,33 +9256,23 @@
       <c r="B104" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C104" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C104" s="28" cm="1">
+        <f t="array" ref="C104">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A104, FIND("~", SUBSTITUTE(A104, ".", "~", LEN(A104) - LEN(SUBSTITUTE(A104, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A104, FIND("~", SUBSTITUTE(A104, ".", "~", LEN(A104) - LEN(SUBSTITUTE(A104, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10023,33 +9285,23 @@
       <c r="B105" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C105" s="28" cm="1">
+        <f t="array" ref="C105">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A105, FIND("~", SUBSTITUTE(A105, ".", "~", LEN(A105) - LEN(SUBSTITUTE(A105, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A105, FIND("~", SUBSTITUTE(A105, ".", "~", LEN(A105) - LEN(SUBSTITUTE(A105, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10062,33 +9314,23 @@
       <c r="B106" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C106" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C106" s="28" cm="1">
+        <f t="array" ref="C106">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A106, FIND("~", SUBSTITUTE(A106, ".", "~", LEN(A106) - LEN(SUBSTITUTE(A106, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A106, FIND("~", SUBSTITUTE(A106, ".", "~", LEN(A106) - LEN(SUBSTITUTE(A106, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10101,33 +9343,23 @@
       <c r="B107" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C107" s="28" cm="1">
+        <f t="array" ref="C107">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A107, FIND("~", SUBSTITUTE(A107, ".", "~", LEN(A107) - LEN(SUBSTITUTE(A107, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A107, FIND("~", SUBSTITUTE(A107, ".", "~", LEN(A107) - LEN(SUBSTITUTE(A107, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10140,33 +9372,23 @@
       <c r="B108" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C108" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C108" s="28" cm="1">
+        <f t="array" ref="C108">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A108, FIND("~", SUBSTITUTE(A108, ".", "~", LEN(A108) - LEN(SUBSTITUTE(A108, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A108, FIND("~", SUBSTITUTE(A108, ".", "~", LEN(A108) - LEN(SUBSTITUTE(A108, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10179,33 +9401,23 @@
       <c r="B109" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C109" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C109" s="28" cm="1">
+        <f t="array" ref="C109">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A109, FIND("~", SUBSTITUTE(A109, ".", "~", LEN(A109) - LEN(SUBSTITUTE(A109, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A109, FIND("~", SUBSTITUTE(A109, ".", "~", LEN(A109) - LEN(SUBSTITUTE(A109, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10218,44 +9430,34 @@
       <c r="B110" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C110" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C110" s="28" cm="1">
+        <f t="array" ref="C110">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A110, FIND("~", SUBSTITUTE(A110, ".", "~", LEN(A110) - LEN(SUBSTITUTE(A110, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A110, FIND("~", SUBSTITUTE(A110, ".", "~", LEN(A110) - LEN(SUBSTITUTE(A110, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A111" s="128" t="s">
+      <c r="A111" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="B111" s="129"/>
-      <c r="C111" s="130"/>
+      <c r="B111" s="132"/>
+      <c r="C111" s="133"/>
     </row>
     <row r="112" spans="1:3" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A112" s="26" t="s">
@@ -10264,44 +9466,34 @@
       <c r="B112" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="C112" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C112" s="28" cm="1">
+        <f t="array" ref="C112">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A112, FIND("~", SUBSTITUTE(A112, ".", "~", LEN(A112) - LEN(SUBSTITUTE(A112, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A112, FIND("~", SUBSTITUTE(A112, ".", "~", LEN(A112) - LEN(SUBSTITUTE(A112, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A113" s="128" t="s">
+      <c r="A113" s="131" t="s">
         <v>287</v>
       </c>
-      <c r="B113" s="129"/>
-      <c r="C113" s="130"/>
+      <c r="B113" s="132"/>
+      <c r="C113" s="133"/>
     </row>
     <row r="114" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A114" s="26" t="s">
@@ -10310,51 +9502,41 @@
       <c r="B114" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="C114" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C114" s="28" cm="1">
+        <f t="array" ref="C114">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A114, FIND("~", SUBSTITUTE(A114, ".", "~", LEN(A114) - LEN(SUBSTITUTE(A114, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A114, FIND("~", SUBSTITUTE(A114, ".", "~", LEN(A114) - LEN(SUBSTITUTE(A114, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A115" s="128" t="s">
+      <c r="A115" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="B115" s="129"/>
-      <c r="C115" s="130"/>
+      <c r="B115" s="132"/>
+      <c r="C115" s="133"/>
     </row>
     <row r="116" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A116" s="131" t="s">
+      <c r="A116" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="132"/>
-      <c r="C116" s="133"/>
+      <c r="B116" s="129"/>
+      <c r="C116" s="130"/>
     </row>
     <row r="117" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A117" s="26" t="s">
@@ -10363,33 +9545,23 @@
       <c r="B117" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C117" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C117" s="28" cm="1">
+        <f t="array" ref="C117">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A117, FIND("~", SUBSTITUTE(A117, ".", "~", LEN(A117) - LEN(SUBSTITUTE(A117, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A117, FIND("~", SUBSTITUTE(A117, ".", "~", LEN(A117) - LEN(SUBSTITUTE(A117, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10402,33 +9574,23 @@
       <c r="B118" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C118" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C118" s="28" cm="1">
+        <f t="array" ref="C118">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A118, FIND("~", SUBSTITUTE(A118, ".", "~", LEN(A118) - LEN(SUBSTITUTE(A118, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A118, FIND("~", SUBSTITUTE(A118, ".", "~", LEN(A118) - LEN(SUBSTITUTE(A118, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10441,33 +9603,23 @@
       <c r="B119" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C119" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C119" s="28" cm="1">
+        <f t="array" ref="C119">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A119, FIND("~", SUBSTITUTE(A119, ".", "~", LEN(A119) - LEN(SUBSTITUTE(A119, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A119, FIND("~", SUBSTITUTE(A119, ".", "~", LEN(A119) - LEN(SUBSTITUTE(A119, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10480,33 +9632,23 @@
       <c r="B120" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C120" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C120" s="28" cm="1">
+        <f t="array" ref="C120">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A120, FIND("~", SUBSTITUTE(A120, ".", "~", LEN(A120) - LEN(SUBSTITUTE(A120, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A120, FIND("~", SUBSTITUTE(A120, ".", "~", LEN(A120) - LEN(SUBSTITUTE(A120, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10519,33 +9661,23 @@
       <c r="B121" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C121" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C121" s="28" cm="1">
+        <f t="array" ref="C121">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A121, FIND("~", SUBSTITUTE(A121, ".", "~", LEN(A121) - LEN(SUBSTITUTE(A121, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A121, FIND("~", SUBSTITUTE(A121, ".", "~", LEN(A121) - LEN(SUBSTITUTE(A121, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10558,51 +9690,41 @@
       <c r="B122" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C122" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C122" s="28" cm="1">
+        <f t="array" ref="C122">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A122, FIND("~", SUBSTITUTE(A122, ".", "~", LEN(A122) - LEN(SUBSTITUTE(A122, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A122, FIND("~", SUBSTITUTE(A122, ".", "~", LEN(A122) - LEN(SUBSTITUTE(A122, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A123" s="128" t="s">
+      <c r="A123" s="131" t="s">
         <v>297</v>
       </c>
-      <c r="B123" s="129"/>
-      <c r="C123" s="130"/>
+      <c r="B123" s="132"/>
+      <c r="C123" s="133"/>
     </row>
     <row r="124" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A124" s="131" t="s">
+      <c r="A124" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="132"/>
-      <c r="C124" s="133"/>
+      <c r="B124" s="129"/>
+      <c r="C124" s="130"/>
     </row>
     <row r="125" spans="1:5" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A125" s="26" t="s">
@@ -10611,33 +9733,23 @@
       <c r="B125" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C125" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C125" s="28" cm="1">
+        <f t="array" ref="C125">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A125, FIND("~", SUBSTITUTE(A125, ".", "~", LEN(A125) - LEN(SUBSTITUTE(A125, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A125, FIND("~", SUBSTITUTE(A125, ".", "~", LEN(A125) - LEN(SUBSTITUTE(A125, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10650,33 +9762,23 @@
       <c r="B126" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="C126" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C126" s="28" cm="1">
+        <f t="array" ref="C126">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A126, FIND("~", SUBSTITUTE(A126, ".", "~", LEN(A126) - LEN(SUBSTITUTE(A126, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A126, FIND("~", SUBSTITUTE(A126, ".", "~", LEN(A126) - LEN(SUBSTITUTE(A126, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10691,33 +9793,23 @@
       <c r="B127" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="C127" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C127" s="28" cm="1">
+        <f t="array" ref="C127">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A127, FIND("~", SUBSTITUTE(A127, ".", "~", LEN(A127) - LEN(SUBSTITUTE(A127, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A127, FIND("~", SUBSTITUTE(A127, ".", "~", LEN(A127) - LEN(SUBSTITUTE(A127, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10732,33 +9824,23 @@
       <c r="B128" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C128" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C128" s="28" cm="1">
+        <f t="array" ref="C128">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A128, FIND("~", SUBSTITUTE(A128, ".", "~", LEN(A128) - LEN(SUBSTITUTE(A128, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A128, FIND("~", SUBSTITUTE(A128, ".", "~", LEN(A128) - LEN(SUBSTITUTE(A128, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10767,11 +9849,11 @@
       <c r="E128" s="25"/>
     </row>
     <row r="129" spans="1:6" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A129" s="131" t="s">
+      <c r="A129" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B129" s="132"/>
-      <c r="C129" s="133"/>
+      <c r="B129" s="129"/>
+      <c r="C129" s="130"/>
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
     </row>
@@ -10782,33 +9864,23 @@
       <c r="B130" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C130" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C130" s="28" cm="1">
+        <f t="array" ref="C130">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A130, FIND("~", SUBSTITUTE(A130, ".", "~", LEN(A130) - LEN(SUBSTITUTE(A130, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A130, FIND("~", SUBSTITUTE(A130, ".", "~", LEN(A130) - LEN(SUBSTITUTE(A130, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10823,33 +9895,23 @@
       <c r="B131" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C131" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C131" s="28" cm="1">
+        <f t="array" ref="C131">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A131, FIND("~", SUBSTITUTE(A131, ".", "~", LEN(A131) - LEN(SUBSTITUTE(A131, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A131, FIND("~", SUBSTITUTE(A131, ".", "~", LEN(A131) - LEN(SUBSTITUTE(A131, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10864,33 +9926,23 @@
       <c r="B132" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C132" s="28" cm="1">
+        <f t="array" ref="C132">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A132, FIND("~", SUBSTITUTE(A132, ".", "~", LEN(A132) - LEN(SUBSTITUTE(A132, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A132, FIND("~", SUBSTITUTE(A132, ".", "~", LEN(A132) - LEN(SUBSTITUTE(A132, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10905,33 +9957,23 @@
       <c r="B133" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C133" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C133" s="28" cm="1">
+        <f t="array" ref="C133">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A133, FIND("~", SUBSTITUTE(A133, ".", "~", LEN(A133) - LEN(SUBSTITUTE(A133, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A133, FIND("~", SUBSTITUTE(A133, ".", "~", LEN(A133) - LEN(SUBSTITUTE(A133, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -10940,21 +9982,21 @@
       <c r="E133" s="25"/>
     </row>
     <row r="134" spans="1:6" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A134" s="128" t="s">
+      <c r="A134" s="131" t="s">
         <v>309</v>
       </c>
-      <c r="B134" s="129"/>
-      <c r="C134" s="130"/>
+      <c r="B134" s="132"/>
+      <c r="C134" s="133"/>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
     </row>
     <row r="135" spans="1:6" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A135" s="131" t="s">
+      <c r="A135" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="132"/>
-      <c r="C135" s="133"/>
+      <c r="B135" s="129"/>
+      <c r="C135" s="130"/>
       <c r="D135" s="25"/>
       <c r="E135" s="25"/>
       <c r="F135" s="25"/>
@@ -10966,33 +10008,23 @@
       <c r="B136" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C136" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C136" s="28" cm="1">
+        <f t="array" ref="C136">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A136, FIND("~", SUBSTITUTE(A136, ".", "~", LEN(A136) - LEN(SUBSTITUTE(A136, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A136, FIND("~", SUBSTITUTE(A136, ".", "~", LEN(A136) - LEN(SUBSTITUTE(A136, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11008,33 +10040,23 @@
       <c r="B137" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C137" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C137" s="28" cm="1">
+        <f t="array" ref="C137">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A137, FIND("~", SUBSTITUTE(A137, ".", "~", LEN(A137) - LEN(SUBSTITUTE(A137, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A137, FIND("~", SUBSTITUTE(A137, ".", "~", LEN(A137) - LEN(SUBSTITUTE(A137, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11044,11 +10066,11 @@
       <c r="F137" s="25"/>
     </row>
     <row r="138" spans="1:6" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A138" s="131" t="s">
+      <c r="A138" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B138" s="132"/>
-      <c r="C138" s="133"/>
+      <c r="B138" s="129"/>
+      <c r="C138" s="130"/>
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
@@ -11060,33 +10082,23 @@
       <c r="B139" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C139" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C139" s="28" cm="1">
+        <f t="array" ref="C139">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A139, FIND("~", SUBSTITUTE(A139, ".", "~", LEN(A139) - LEN(SUBSTITUTE(A139, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A139, FIND("~", SUBSTITUTE(A139, ".", "~", LEN(A139) - LEN(SUBSTITUTE(A139, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11102,33 +10114,23 @@
       <c r="B140" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C140" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C140" s="28" cm="1">
+        <f t="array" ref="C140">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A140, FIND("~", SUBSTITUTE(A140, ".", "~", LEN(A140) - LEN(SUBSTITUTE(A140, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A140, FIND("~", SUBSTITUTE(A140, ".", "~", LEN(A140) - LEN(SUBSTITUTE(A140, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11141,33 +10143,23 @@
       <c r="B141" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C141" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C141" s="28" cm="1">
+        <f t="array" ref="C141">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A141, FIND("~", SUBSTITUTE(A141, ".", "~", LEN(A141) - LEN(SUBSTITUTE(A141, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A141, FIND("~", SUBSTITUTE(A141, ".", "~", LEN(A141) - LEN(SUBSTITUTE(A141, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11180,33 +10172,23 @@
       <c r="B142" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C142" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C142" s="28" cm="1">
+        <f t="array" ref="C142">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A142, FIND("~", SUBSTITUTE(A142, ".", "~", LEN(A142) - LEN(SUBSTITUTE(A142, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A142, FIND("~", SUBSTITUTE(A142, ".", "~", LEN(A142) - LEN(SUBSTITUTE(A142, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11219,51 +10201,41 @@
       <c r="B143" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C143" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C143" s="28" cm="1">
+        <f t="array" ref="C143">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A143, FIND("~", SUBSTITUTE(A143, ".", "~", LEN(A143) - LEN(SUBSTITUTE(A143, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A143, FIND("~", SUBSTITUTE(A143, ".", "~", LEN(A143) - LEN(SUBSTITUTE(A143, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A144" s="128" t="s">
+      <c r="A144" s="131" t="s">
         <v>318</v>
       </c>
-      <c r="B144" s="129"/>
-      <c r="C144" s="130"/>
+      <c r="B144" s="132"/>
+      <c r="C144" s="133"/>
     </row>
     <row r="145" spans="1:16" s="35" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A145" s="131" t="s">
+      <c r="A145" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="132"/>
-      <c r="C145" s="133"/>
+      <c r="B145" s="129"/>
+      <c r="C145" s="130"/>
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
@@ -11283,33 +10255,23 @@
       <c r="B146" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C146" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C146" s="28" cm="1">
+        <f t="array" ref="C146">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A146, FIND("~", SUBSTITUTE(A146, ".", "~", LEN(A146) - LEN(SUBSTITUTE(A146, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A146, FIND("~", SUBSTITUTE(A146, ".", "~", LEN(A146) - LEN(SUBSTITUTE(A146, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11322,33 +10284,23 @@
       <c r="B147" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C147" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C147" s="28" cm="1">
+        <f t="array" ref="C147">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A147, FIND("~", SUBSTITUTE(A147, ".", "~", LEN(A147) - LEN(SUBSTITUTE(A147, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A147, FIND("~", SUBSTITUTE(A147, ".", "~", LEN(A147) - LEN(SUBSTITUTE(A147, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11361,33 +10313,23 @@
       <c r="B148" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C148" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C148" s="28" cm="1">
+        <f t="array" ref="C148">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A148, FIND("~", SUBSTITUTE(A148, ".", "~", LEN(A148) - LEN(SUBSTITUTE(A148, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A148, FIND("~", SUBSTITUTE(A148, ".", "~", LEN(A148) - LEN(SUBSTITUTE(A148, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11400,33 +10342,23 @@
       <c r="B149" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C149" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C149" s="28" cm="1">
+        <f t="array" ref="C149">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A149, FIND("~", SUBSTITUTE(A149, ".", "~", LEN(A149) - LEN(SUBSTITUTE(A149, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A149, FIND("~", SUBSTITUTE(A149, ".", "~", LEN(A149) - LEN(SUBSTITUTE(A149, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11439,33 +10371,23 @@
       <c r="B150" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C150" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C150" s="28" cm="1">
+        <f t="array" ref="C150">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A150, FIND("~", SUBSTITUTE(A150, ".", "~", LEN(A150) - LEN(SUBSTITUTE(A150, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A150, FIND("~", SUBSTITUTE(A150, ".", "~", LEN(A150) - LEN(SUBSTITUTE(A150, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11478,44 +10400,34 @@
       <c r="B151" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C151" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C151" s="28" cm="1">
+        <f t="array" ref="C151">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A151, FIND("~", SUBSTITUTE(A151, ".", "~", LEN(A151) - LEN(SUBSTITUTE(A151, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A151, FIND("~", SUBSTITUTE(A151, ".", "~", LEN(A151) - LEN(SUBSTITUTE(A151, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:16" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A152" s="131" t="s">
+      <c r="A152" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B152" s="132"/>
-      <c r="C152" s="133"/>
+      <c r="B152" s="129"/>
+      <c r="C152" s="130"/>
     </row>
     <row r="153" spans="1:16" s="19" customFormat="1" ht="20.65" customHeight="1">
       <c r="A153" s="26" t="s">
@@ -11524,33 +10436,23 @@
       <c r="B153" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C153" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C153" s="28" cm="1">
+        <f t="array" ref="C153">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A153, FIND("~", SUBSTITUTE(A153, ".", "~", LEN(A153) - LEN(SUBSTITUTE(A153, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A153, FIND("~", SUBSTITUTE(A153, ".", "~", LEN(A153) - LEN(SUBSTITUTE(A153, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11563,33 +10465,23 @@
       <c r="B154" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C154" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C154" s="28" cm="1">
+        <f t="array" ref="C154">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A154, FIND("~", SUBSTITUTE(A154, ".", "~", LEN(A154) - LEN(SUBSTITUTE(A154, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A154, FIND("~", SUBSTITUTE(A154, ".", "~", LEN(A154) - LEN(SUBSTITUTE(A154, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11602,33 +10494,23 @@
       <c r="B155" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C155" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C155" s="28" cm="1">
+        <f t="array" ref="C155">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A155, FIND("~", SUBSTITUTE(A155, ".", "~", LEN(A155) - LEN(SUBSTITUTE(A155, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A155, FIND("~", SUBSTITUTE(A155, ".", "~", LEN(A155) - LEN(SUBSTITUTE(A155, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11641,33 +10523,23 @@
       <c r="B156" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C156" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C156" s="28" cm="1">
+        <f t="array" ref="C156">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A156, FIND("~", SUBSTITUTE(A156, ".", "~", LEN(A156) - LEN(SUBSTITUTE(A156, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A156, FIND("~", SUBSTITUTE(A156, ".", "~", LEN(A156) - LEN(SUBSTITUTE(A156, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11680,33 +10552,23 @@
       <c r="B157" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C157" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C157" s="28" cm="1">
+        <f t="array" ref="C157">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A157, FIND("~", SUBSTITUTE(A157, ".", "~", LEN(A157) - LEN(SUBSTITUTE(A157, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A157, FIND("~", SUBSTITUTE(A157, ".", "~", LEN(A157) - LEN(SUBSTITUTE(A157, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11719,33 +10581,23 @@
       <c r="B158" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C158" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C158" s="28" cm="1">
+        <f t="array" ref="C158">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A158, FIND("~", SUBSTITUTE(A158, ".", "~", LEN(A158) - LEN(SUBSTITUTE(A158, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A158, FIND("~", SUBSTITUTE(A158, ".", "~", LEN(A158) - LEN(SUBSTITUTE(A158, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11758,33 +10610,23 @@
       <c r="B159" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C159" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C159" s="28" cm="1">
+        <f t="array" ref="C159">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A159, FIND("~", SUBSTITUTE(A159, ".", "~", LEN(A159) - LEN(SUBSTITUTE(A159, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A159, FIND("~", SUBSTITUTE(A159, ".", "~", LEN(A159) - LEN(SUBSTITUTE(A159, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11810,33 +10652,23 @@
       <c r="B160" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C160" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C160" s="28" cm="1">
+        <f t="array" ref="C160">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A160, FIND("~", SUBSTITUTE(A160, ".", "~", LEN(A160) - LEN(SUBSTITUTE(A160, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A160, FIND("~", SUBSTITUTE(A160, ".", "~", LEN(A160) - LEN(SUBSTITUTE(A160, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11862,33 +10694,23 @@
       <c r="B161" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C161" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C161" s="28" cm="1">
+        <f t="array" ref="C161">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A161, FIND("~", SUBSTITUTE(A161, ".", "~", LEN(A161) - LEN(SUBSTITUTE(A161, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A161, FIND("~", SUBSTITUTE(A161, ".", "~", LEN(A161) - LEN(SUBSTITUTE(A161, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11914,33 +10736,23 @@
       <c r="B162" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C162" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C162" s="28" cm="1">
+        <f t="array" ref="C162">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A162, FIND("~", SUBSTITUTE(A162, ".", "~", LEN(A162) - LEN(SUBSTITUTE(A162, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A162, FIND("~", SUBSTITUTE(A162, ".", "~", LEN(A162) - LEN(SUBSTITUTE(A162, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -11960,11 +10772,11 @@
       <c r="P162" s="25"/>
     </row>
     <row r="163" spans="1:16" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A163" s="128" t="s">
+      <c r="A163" s="131" t="s">
         <v>335</v>
       </c>
-      <c r="B163" s="129"/>
-      <c r="C163" s="130"/>
+      <c r="B163" s="132"/>
+      <c r="C163" s="133"/>
       <c r="D163" s="25"/>
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
@@ -11980,11 +10792,11 @@
       <c r="P163" s="25"/>
     </row>
     <row r="164" spans="1:16" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A164" s="131" t="s">
+      <c r="A164" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="132"/>
-      <c r="C164" s="133"/>
+      <c r="B164" s="129"/>
+      <c r="C164" s="130"/>
       <c r="D164" s="25"/>
       <c r="E164" s="25"/>
       <c r="F164" s="25"/>
@@ -12006,33 +10818,23 @@
       <c r="B165" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C165" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C165" s="28" cm="1">
+        <f t="array" ref="C165">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A165, FIND("~", SUBSTITUTE(A165, ".", "~", LEN(A165) - LEN(SUBSTITUTE(A165, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A165, FIND("~", SUBSTITUTE(A165, ".", "~", LEN(A165) - LEN(SUBSTITUTE(A165, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12058,33 +10860,23 @@
       <c r="B166" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="C166" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C166" s="28" cm="1">
+        <f t="array" ref="C166">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A166, FIND("~", SUBSTITUTE(A166, ".", "~", LEN(A166) - LEN(SUBSTITUTE(A166, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A166, FIND("~", SUBSTITUTE(A166, ".", "~", LEN(A166) - LEN(SUBSTITUTE(A166, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12110,33 +10902,23 @@
       <c r="B167" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="C167" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C167" s="28" cm="1">
+        <f t="array" ref="C167">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A167, FIND("~", SUBSTITUTE(A167, ".", "~", LEN(A167) - LEN(SUBSTITUTE(A167, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A167, FIND("~", SUBSTITUTE(A167, ".", "~", LEN(A167) - LEN(SUBSTITUTE(A167, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12162,33 +10944,23 @@
       <c r="B168" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="C168" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C168" s="28" cm="1">
+        <f t="array" ref="C168">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A168, FIND("~", SUBSTITUTE(A168, ".", "~", LEN(A168) - LEN(SUBSTITUTE(A168, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A168, FIND("~", SUBSTITUTE(A168, ".", "~", LEN(A168) - LEN(SUBSTITUTE(A168, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12214,33 +10986,23 @@
       <c r="B169" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="C169" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C169" s="28" cm="1">
+        <f t="array" ref="C169">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A169, FIND("~", SUBSTITUTE(A169, ".", "~", LEN(A169) - LEN(SUBSTITUTE(A169, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A169, FIND("~", SUBSTITUTE(A169, ".", "~", LEN(A169) - LEN(SUBSTITUTE(A169, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12266,33 +11028,23 @@
       <c r="B170" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C170" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C170" s="28" cm="1">
+        <f t="array" ref="C170">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A170, FIND("~", SUBSTITUTE(A170, ".", "~", LEN(A170) - LEN(SUBSTITUTE(A170, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A170, FIND("~", SUBSTITUTE(A170, ".", "~", LEN(A170) - LEN(SUBSTITUTE(A170, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12318,33 +11070,23 @@
       <c r="B171" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C171" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C171" s="28" cm="1">
+        <f t="array" ref="C171">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A171, FIND("~", SUBSTITUTE(A171, ".", "~", LEN(A171) - LEN(SUBSTITUTE(A171, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A171, FIND("~", SUBSTITUTE(A171, ".", "~", LEN(A171) - LEN(SUBSTITUTE(A171, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12370,33 +11112,23 @@
       <c r="B172" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C172" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C172" s="28" cm="1">
+        <f t="array" ref="C172">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A172, FIND("~", SUBSTITUTE(A172, ".", "~", LEN(A172) - LEN(SUBSTITUTE(A172, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A172, FIND("~", SUBSTITUTE(A172, ".", "~", LEN(A172) - LEN(SUBSTITUTE(A172, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12416,11 +11148,11 @@
       <c r="P172" s="25"/>
     </row>
     <row r="173" spans="1:16" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A173" s="131" t="s">
+      <c r="A173" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B173" s="132"/>
-      <c r="C173" s="133"/>
+      <c r="B173" s="129"/>
+      <c r="C173" s="130"/>
       <c r="D173" s="25"/>
       <c r="E173" s="25"/>
       <c r="F173" s="25"/>
@@ -12442,33 +11174,23 @@
       <c r="B174" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C174" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C174" s="28" cm="1">
+        <f t="array" ref="C174">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A174, FIND("~", SUBSTITUTE(A174, ".", "~", LEN(A174) - LEN(SUBSTITUTE(A174, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A174, FIND("~", SUBSTITUTE(A174, ".", "~", LEN(A174) - LEN(SUBSTITUTE(A174, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12494,33 +11216,23 @@
       <c r="B175" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C175" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C175" s="28" cm="1">
+        <f t="array" ref="C175">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A175, FIND("~", SUBSTITUTE(A175, ".", "~", LEN(A175) - LEN(SUBSTITUTE(A175, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A175, FIND("~", SUBSTITUTE(A175, ".", "~", LEN(A175) - LEN(SUBSTITUTE(A175, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12533,33 +11245,23 @@
       <c r="B176" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C176" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C176" s="28" cm="1">
+        <f t="array" ref="C176">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A176, FIND("~", SUBSTITUTE(A176, ".", "~", LEN(A176) - LEN(SUBSTITUTE(A176, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A176, FIND("~", SUBSTITUTE(A176, ".", "~", LEN(A176) - LEN(SUBSTITUTE(A176, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12572,33 +11274,23 @@
       <c r="B177" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C177" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C177" s="28" cm="1">
+        <f t="array" ref="C177">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A177, FIND("~", SUBSTITUTE(A177, ".", "~", LEN(A177) - LEN(SUBSTITUTE(A177, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A177, FIND("~", SUBSTITUTE(A177, ".", "~", LEN(A177) - LEN(SUBSTITUTE(A177, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12611,33 +11303,23 @@
       <c r="B178" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C178" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C178" s="28" cm="1">
+        <f t="array" ref="C178">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A178, FIND("~", SUBSTITUTE(A178, ".", "~", LEN(A178) - LEN(SUBSTITUTE(A178, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A178, FIND("~", SUBSTITUTE(A178, ".", "~", LEN(A178) - LEN(SUBSTITUTE(A178, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12650,51 +11332,41 @@
       <c r="B179" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C179" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C179" s="28" cm="1">
+        <f t="array" ref="C179">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A179, FIND("~", SUBSTITUTE(A179, ".", "~", LEN(A179) - LEN(SUBSTITUTE(A179, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A179, FIND("~", SUBSTITUTE(A179, ".", "~", LEN(A179) - LEN(SUBSTITUTE(A179, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A180" s="128" t="s">
+      <c r="A180" s="131" t="s">
         <v>354</v>
       </c>
-      <c r="B180" s="129"/>
-      <c r="C180" s="130"/>
+      <c r="B180" s="132"/>
+      <c r="C180" s="133"/>
     </row>
     <row r="181" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A181" s="131" t="s">
+      <c r="A181" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="132"/>
-      <c r="C181" s="133"/>
+      <c r="B181" s="129"/>
+      <c r="C181" s="130"/>
       <c r="D181" s="25"/>
       <c r="E181" s="25"/>
       <c r="F181" s="25"/>
@@ -12710,33 +11382,23 @@
       <c r="B182" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C182" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C182" s="28" cm="1">
+        <f t="array" ref="C182">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A182, FIND("~", SUBSTITUTE(A182, ".", "~", LEN(A182) - LEN(SUBSTITUTE(A182, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A182, FIND("~", SUBSTITUTE(A182, ".", "~", LEN(A182) - LEN(SUBSTITUTE(A182, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12756,33 +11418,23 @@
       <c r="B183" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C183" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C183" s="28" cm="1">
+        <f t="array" ref="C183">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A183, FIND("~", SUBSTITUTE(A183, ".", "~", LEN(A183) - LEN(SUBSTITUTE(A183, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A183, FIND("~", SUBSTITUTE(A183, ".", "~", LEN(A183) - LEN(SUBSTITUTE(A183, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12802,33 +11454,23 @@
       <c r="B184" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C184" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C184" s="28" cm="1">
+        <f t="array" ref="C184">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A184, FIND("~", SUBSTITUTE(A184, ".", "~", LEN(A184) - LEN(SUBSTITUTE(A184, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A184, FIND("~", SUBSTITUTE(A184, ".", "~", LEN(A184) - LEN(SUBSTITUTE(A184, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12848,33 +11490,23 @@
       <c r="B185" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C185" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C185" s="28" cm="1">
+        <f t="array" ref="C185">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A185, FIND("~", SUBSTITUTE(A185, ".", "~", LEN(A185) - LEN(SUBSTITUTE(A185, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A185, FIND("~", SUBSTITUTE(A185, ".", "~", LEN(A185) - LEN(SUBSTITUTE(A185, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12894,33 +11526,23 @@
       <c r="B186" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C186" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C186" s="28" cm="1">
+        <f t="array" ref="C186">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A186, FIND("~", SUBSTITUTE(A186, ".", "~", LEN(A186) - LEN(SUBSTITUTE(A186, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A186, FIND("~", SUBSTITUTE(A186, ".", "~", LEN(A186) - LEN(SUBSTITUTE(A186, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -12934,11 +11556,11 @@
       <c r="J186" s="25"/>
     </row>
     <row r="187" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A187" s="131" t="s">
+      <c r="A187" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B187" s="132"/>
-      <c r="C187" s="133"/>
+      <c r="B187" s="129"/>
+      <c r="C187" s="130"/>
       <c r="D187" s="25"/>
       <c r="E187" s="25"/>
       <c r="F187" s="25"/>
@@ -12954,33 +11576,23 @@
       <c r="B188" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C188" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C188" s="28" cm="1">
+        <f t="array" ref="C188">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A188, FIND("~", SUBSTITUTE(A188, ".", "~", LEN(A188) - LEN(SUBSTITUTE(A188, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A188, FIND("~", SUBSTITUTE(A188, ".", "~", LEN(A188) - LEN(SUBSTITUTE(A188, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13000,33 +11612,23 @@
       <c r="B189" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C189" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C189" s="28" cm="1">
+        <f t="array" ref="C189">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A189, FIND("~", SUBSTITUTE(A189, ".", "~", LEN(A189) - LEN(SUBSTITUTE(A189, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A189, FIND("~", SUBSTITUTE(A189, ".", "~", LEN(A189) - LEN(SUBSTITUTE(A189, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13046,33 +11648,23 @@
       <c r="B190" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C190" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C190" s="28" cm="1">
+        <f t="array" ref="C190">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A190, FIND("~", SUBSTITUTE(A190, ".", "~", LEN(A190) - LEN(SUBSTITUTE(A190, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A190, FIND("~", SUBSTITUTE(A190, ".", "~", LEN(A190) - LEN(SUBSTITUTE(A190, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13092,33 +11684,23 @@
       <c r="B191" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C191" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C191" s="28" cm="1">
+        <f t="array" ref="C191">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A191, FIND("~", SUBSTITUTE(A191, ".", "~", LEN(A191) - LEN(SUBSTITUTE(A191, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A191, FIND("~", SUBSTITUTE(A191, ".", "~", LEN(A191) - LEN(SUBSTITUTE(A191, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13132,11 +11714,11 @@
       <c r="J191" s="25"/>
     </row>
     <row r="192" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A192" s="128" t="s">
+      <c r="A192" s="131" t="s">
         <v>360</v>
       </c>
-      <c r="B192" s="129"/>
-      <c r="C192" s="130"/>
+      <c r="B192" s="132"/>
+      <c r="C192" s="133"/>
       <c r="D192" s="25"/>
       <c r="E192" s="25"/>
       <c r="F192" s="25"/>
@@ -13146,11 +11728,11 @@
       <c r="J192" s="25"/>
     </row>
     <row r="193" spans="1:10" s="35" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A193" s="131" t="s">
+      <c r="A193" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B193" s="132"/>
-      <c r="C193" s="133"/>
+      <c r="B193" s="129"/>
+      <c r="C193" s="130"/>
       <c r="D193" s="25"/>
       <c r="E193" s="25"/>
       <c r="F193" s="25"/>
@@ -13166,33 +11748,23 @@
       <c r="B194" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C194" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C194" s="28" cm="1">
+        <f t="array" ref="C194">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A194, FIND("~", SUBSTITUTE(A194, ".", "~", LEN(A194) - LEN(SUBSTITUTE(A194, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A194, FIND("~", SUBSTITUTE(A194, ".", "~", LEN(A194) - LEN(SUBSTITUTE(A194, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13212,33 +11784,23 @@
       <c r="B195" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C195" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C195" s="28" cm="1">
+        <f t="array" ref="C195">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A195, FIND("~", SUBSTITUTE(A195, ".", "~", LEN(A195) - LEN(SUBSTITUTE(A195, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A195, FIND("~", SUBSTITUTE(A195, ".", "~", LEN(A195) - LEN(SUBSTITUTE(A195, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13258,33 +11820,23 @@
       <c r="B196" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C196" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C196" s="28" cm="1">
+        <f t="array" ref="C196">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A196, FIND("~", SUBSTITUTE(A196, ".", "~", LEN(A196) - LEN(SUBSTITUTE(A196, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A196, FIND("~", SUBSTITUTE(A196, ".", "~", LEN(A196) - LEN(SUBSTITUTE(A196, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13304,33 +11856,23 @@
       <c r="B197" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C197" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C197" s="28" cm="1">
+        <f t="array" ref="C197">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A197, FIND("~", SUBSTITUTE(A197, ".", "~", LEN(A197) - LEN(SUBSTITUTE(A197, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A197, FIND("~", SUBSTITUTE(A197, ".", "~", LEN(A197) - LEN(SUBSTITUTE(A197, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13350,33 +11892,23 @@
       <c r="B198" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C198" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C198" s="28" cm="1">
+        <f t="array" ref="C198">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A198, FIND("~", SUBSTITUTE(A198, ".", "~", LEN(A198) - LEN(SUBSTITUTE(A198, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A198, FIND("~", SUBSTITUTE(A198, ".", "~", LEN(A198) - LEN(SUBSTITUTE(A198, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13396,33 +11928,23 @@
       <c r="B199" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C199" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C199" s="28" cm="1">
+        <f t="array" ref="C199">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A199, FIND("~", SUBSTITUTE(A199, ".", "~", LEN(A199) - LEN(SUBSTITUTE(A199, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A199, FIND("~", SUBSTITUTE(A199, ".", "~", LEN(A199) - LEN(SUBSTITUTE(A199, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13436,11 +11958,11 @@
       <c r="J199" s="25"/>
     </row>
     <row r="200" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A200" s="131" t="s">
+      <c r="A200" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B200" s="132"/>
-      <c r="C200" s="133"/>
+      <c r="B200" s="129"/>
+      <c r="C200" s="130"/>
       <c r="D200" s="25"/>
       <c r="E200" s="25"/>
       <c r="F200" s="25"/>
@@ -13456,33 +11978,23 @@
       <c r="B201" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C201" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C201" s="28" cm="1">
+        <f t="array" ref="C201">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A201, FIND("~", SUBSTITUTE(A201, ".", "~", LEN(A201) - LEN(SUBSTITUTE(A201, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A201, FIND("~", SUBSTITUTE(A201, ".", "~", LEN(A201) - LEN(SUBSTITUTE(A201, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13498,33 +12010,23 @@
       <c r="B202" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C202" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C202" s="28" cm="1">
+        <f t="array" ref="C202">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A202, FIND("~", SUBSTITUTE(A202, ".", "~", LEN(A202) - LEN(SUBSTITUTE(A202, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A202, FIND("~", SUBSTITUTE(A202, ".", "~", LEN(A202) - LEN(SUBSTITUTE(A202, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13540,33 +12042,23 @@
       <c r="B203" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C203" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C203" s="28" cm="1">
+        <f t="array" ref="C203">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A203, FIND("~", SUBSTITUTE(A203, ".", "~", LEN(A203) - LEN(SUBSTITUTE(A203, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A203, FIND("~", SUBSTITUTE(A203, ".", "~", LEN(A203) - LEN(SUBSTITUTE(A203, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13582,33 +12074,23 @@
       <c r="B204" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C204" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C204" s="28" cm="1">
+        <f t="array" ref="C204">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A204, FIND("~", SUBSTITUTE(A204, ".", "~", LEN(A204) - LEN(SUBSTITUTE(A204, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A204, FIND("~", SUBSTITUTE(A204, ".", "~", LEN(A204) - LEN(SUBSTITUTE(A204, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13618,11 +12100,11 @@
       <c r="F204" s="25"/>
     </row>
     <row r="205" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A205" s="128" t="s">
+      <c r="A205" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="B205" s="129"/>
-      <c r="C205" s="130"/>
+      <c r="B205" s="132"/>
+      <c r="C205" s="133"/>
       <c r="D205" s="25"/>
     </row>
     <row r="206" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
@@ -13632,33 +12114,23 @@
       <c r="B206" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C206" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C206" s="28" cm="1">
+        <f t="array" ref="C206">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A206, FIND("~", SUBSTITUTE(A206, ".", "~", LEN(A206) - LEN(SUBSTITUTE(A206, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A206, FIND("~", SUBSTITUTE(A206, ".", "~", LEN(A206) - LEN(SUBSTITUTE(A206, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13666,19 +12138,19 @@
       <c r="D206" s="25"/>
     </row>
     <row r="207" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A207" s="128" t="s">
+      <c r="A207" s="131" t="s">
         <v>372</v>
       </c>
-      <c r="B207" s="129"/>
-      <c r="C207" s="130"/>
+      <c r="B207" s="132"/>
+      <c r="C207" s="133"/>
       <c r="D207" s="25"/>
     </row>
     <row r="208" spans="1:10" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A208" s="131" t="s">
+      <c r="A208" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B208" s="132"/>
-      <c r="C208" s="133"/>
+      <c r="B208" s="129"/>
+      <c r="C208" s="130"/>
       <c r="D208" s="25"/>
     </row>
     <row r="209" spans="1:4" s="19" customFormat="1" ht="20.65" customHeight="1">
@@ -13688,33 +12160,23 @@
       <c r="B209" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C209" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C209" s="28" cm="1">
+        <f t="array" ref="C209">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A209, FIND("~", SUBSTITUTE(A209, ".", "~", LEN(A209) - LEN(SUBSTITUTE(A209, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A209, FIND("~", SUBSTITUTE(A209, ".", "~", LEN(A209) - LEN(SUBSTITUTE(A209, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13728,33 +12190,23 @@
       <c r="B210" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C210" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C210" s="28" cm="1">
+        <f t="array" ref="C210">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A210, FIND("~", SUBSTITUTE(A210, ".", "~", LEN(A210) - LEN(SUBSTITUTE(A210, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A210, FIND("~", SUBSTITUTE(A210, ".", "~", LEN(A210) - LEN(SUBSTITUTE(A210, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13768,33 +12220,23 @@
       <c r="B211" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C211" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C211" s="28" cm="1">
+        <f t="array" ref="C211">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A211, FIND("~", SUBSTITUTE(A211, ".", "~", LEN(A211) - LEN(SUBSTITUTE(A211, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A211, FIND("~", SUBSTITUTE(A211, ".", "~", LEN(A211) - LEN(SUBSTITUTE(A211, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13816,33 +12258,23 @@
       <c r="B213" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C213" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C213" s="28" cm="1">
+        <f t="array" ref="C213">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A213, FIND("~", SUBSTITUTE(A213, ".", "~", LEN(A213) - LEN(SUBSTITUTE(A213, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A213, FIND("~", SUBSTITUTE(A213, ".", "~", LEN(A213) - LEN(SUBSTITUTE(A213, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13855,33 +12287,23 @@
       <c r="B214" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C214" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C214" s="28" cm="1">
+        <f t="array" ref="C214">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A214, FIND("~", SUBSTITUTE(A214, ".", "~", LEN(A214) - LEN(SUBSTITUTE(A214, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A214, FIND("~", SUBSTITUTE(A214, ".", "~", LEN(A214) - LEN(SUBSTITUTE(A214, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13894,33 +12316,23 @@
       <c r="B215" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C215" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C215" s="28" cm="1">
+        <f t="array" ref="C215">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A215, FIND("~", SUBSTITUTE(A215, ".", "~", LEN(A215) - LEN(SUBSTITUTE(A215, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A215, FIND("~", SUBSTITUTE(A215, ".", "~", LEN(A215) - LEN(SUBSTITUTE(A215, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13933,33 +12345,23 @@
       <c r="B216" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C216" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C216" s="28" cm="1">
+        <f t="array" ref="C216">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A216, FIND("~", SUBSTITUTE(A216, ".", "~", LEN(A216) - LEN(SUBSTITUTE(A216, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A216, FIND("~", SUBSTITUTE(A216, ".", "~", LEN(A216) - LEN(SUBSTITUTE(A216, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -13972,33 +12374,23 @@
       <c r="B217" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C217" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C217" s="28" cm="1">
+        <f t="array" ref="C217">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A217, FIND("~", SUBSTITUTE(A217, ".", "~", LEN(A217) - LEN(SUBSTITUTE(A217, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A217, FIND("~", SUBSTITUTE(A217, ".", "~", LEN(A217) - LEN(SUBSTITUTE(A217, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -14011,52 +12403,42 @@
       <c r="B218" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C218" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C218" s="28" cm="1">
+        <f t="array" ref="C218">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A218, FIND("~", SUBSTITUTE(A218, ".", "~", LEN(A218) - LEN(SUBSTITUTE(A218, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A218, FIND("~", SUBSTITUTE(A218, ".", "~", LEN(A218) - LEN(SUBSTITUTE(A218, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A219" s="128" t="s">
+      <c r="A219" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="B219" s="129"/>
-      <c r="C219" s="130"/>
+      <c r="B219" s="132"/>
+      <c r="C219" s="133"/>
       <c r="D219" s="25"/>
     </row>
     <row r="220" spans="1:4" s="19" customFormat="1" ht="20.65" customHeight="1">
-      <c r="A220" s="131" t="s">
+      <c r="A220" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B220" s="132"/>
-      <c r="C220" s="133"/>
+      <c r="B220" s="129"/>
+      <c r="C220" s="130"/>
       <c r="D220" s="25"/>
     </row>
     <row r="221" spans="1:4" ht="18.600000000000001" customHeight="1">
@@ -14066,33 +12448,23 @@
       <c r="B221" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C221" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C221" s="28" cm="1">
+        <f t="array" ref="C221">IFERROR(
+   ABS( INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A221, FIND("~", SUBSTITUTE(A221, ".", "~", LEN(A221) - LEN(SUBSTITUTE(A221, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) ) - ABS( INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A221, FIND("~", SUBSTITUTE(A221, ".", "~", LEN(A221) - LEN(SUBSTITUTE(A221, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    )),
     0
 )</f>
         <v>0</v>
@@ -14105,33 +12477,23 @@
       <c r="B222" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C222" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C222" s="28" cm="1">
+        <f t="array" ref="C222">IFERROR(
+   ABS( INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A222, FIND("~", SUBSTITUTE(A222, ".", "~", LEN(A222) - LEN(SUBSTITUTE(A222, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) ) - ABS( INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A222, FIND("~", SUBSTITUTE(A222, ".", "~", LEN(A222) - LEN(SUBSTITUTE(A222, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    )),
     0
 )</f>
         <v>0</v>
@@ -14144,33 +12506,23 @@
       <c r="B223" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C223" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C223" s="28" cm="1">
+        <f t="array" ref="C223">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A223, FIND("~", SUBSTITUTE(A223, ".", "~", LEN(A223) - LEN(SUBSTITUTE(A223, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A223, FIND("~", SUBSTITUTE(A223, ".", "~", LEN(A223) - LEN(SUBSTITUTE(A223, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -14183,33 +12535,23 @@
       <c r="B224" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C224" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C224" s="28" cm="1">
+        <f t="array" ref="C224">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A224, FIND("~", SUBSTITUTE(A224, ".", "~", LEN(A224) - LEN(SUBSTITUTE(A224, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A224, FIND("~", SUBSTITUTE(A224, ".", "~", LEN(A224) - LEN(SUBSTITUTE(A224, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -14222,33 +12564,23 @@
       <c r="B225" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C225" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C225" s="28" cm="1">
+        <f t="array" ref="C225">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A225, FIND("~", SUBSTITUTE(A225, ".", "~", LEN(A225) - LEN(SUBSTITUTE(A225, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A225, FIND("~", SUBSTITUTE(A225, ".", "~", LEN(A225) - LEN(SUBSTITUTE(A225, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -14261,33 +12593,23 @@
       <c r="B226" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="C226" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C226" s="28" cm="1">
+        <f t="array" ref="C226">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A226, FIND("~", SUBSTITUTE(A226, ".", "~", LEN(A226) - LEN(SUBSTITUTE(A226, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A226, FIND("~", SUBSTITUTE(A226, ".", "~", LEN(A226) - LEN(SUBSTITUTE(A226, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
@@ -14300,33 +12622,23 @@
       <c r="B227" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C227" s="28">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            3,
+      <c r="C227" s="28" cm="1">
+        <f t="array" ref="C227">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
             MATCH(
                 LEFT(A227, FIND("~", SUBSTITUTE(A227, ".", "~", LEN(A227) - LEN(SUBSTITUTE(A227, ".", ""))))) &amp; "TotalkWh",
                 RawData!$1:$1,
                 0
-            ),
-            4
-        )
-    )
-    -
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            2,
+            )    ) -  INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A)-1,
             MATCH(
                 LEFT(A227, FIND("~", SUBSTITUTE(A227, ".", "~", LEN(A227) - LEN(SUBSTITUTE(A227, ".", ""))))) &amp; "TotalkWh",
-               RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
+                RawData!$1:$1,
+                0
+            )    ),
     0
 )</f>
         <v>0</v>
